--- a/planilhas-comparacoes/relatoriosdwg_rev2_vs_rev3.xlsx
+++ b/planilhas-comparacoes/relatoriosdwg_rev2_vs_rev3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="3192" yWindow="1668" windowWidth="17280" windowHeight="10572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="9" name="CAPA" state="visible" r:id="rId4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t xml:space="preserve">LISTA </t>
   </si>
@@ -182,7 +182,7 @@
     <t>QTD REV(3)</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>DIFERENÇA</t>
   </si>
   <si>
     <t>STATUS</t>
@@ -194,34 +194,13 @@
     <t>curva para tubo</t>
   </si>
   <si>
-    <t>ADICIONADO</t>
-  </si>
-  <si>
-    <t>10002252</t>
-  </si>
-  <si>
-    <t>Flange pescoo</t>
-  </si>
-  <si>
-    <t>10002799</t>
-  </si>
-  <si>
-    <t>tê para tubo</t>
-  </si>
-  <si>
-    <t>10003354</t>
-  </si>
-  <si>
-    <t>Flange de encaixe de ao</t>
+    <t>ALTERADO</t>
   </si>
   <si>
     <t>10003362</t>
   </si>
   <si>
-    <t>10003687</t>
-  </si>
-  <si>
-    <t>codigo gp</t>
+    <t>Flange de encaixe de ao</t>
   </si>
   <si>
     <t>10004463</t>
@@ -230,16 +209,16 @@
     <t>Flange cego</t>
   </si>
   <si>
-    <t>10005664</t>
+    <t>10005662</t>
   </si>
   <si>
     <t>joelho para tubo</t>
   </si>
   <si>
-    <t>10005665</t>
+    <t>10005664</t>
   </si>
   <si>
-    <t>10007204</t>
+    <t>10007205</t>
   </si>
   <si>
     <t>parafuso estojo</t>
@@ -248,49 +227,58 @@
     <t>10007207</t>
   </si>
   <si>
-    <t>10007402</t>
-  </si>
-  <si>
-    <t>10007413</t>
-  </si>
-  <si>
     <t>10011516</t>
   </si>
   <si>
     <t>válvula gaveta</t>
   </si>
   <si>
-    <t>10002738</t>
+    <t>10011563</t>
   </si>
   <si>
-    <t>10003473</t>
+    <t>ADICIONADO</t>
   </si>
   <si>
-    <t>luva para tubo</t>
+    <t>10038562</t>
   </si>
   <si>
-    <t>10003476</t>
+    <t>colar para tubo</t>
   </si>
   <si>
-    <t>10003792</t>
+    <t>10290551</t>
   </si>
   <si>
-    <t>tampão de aço</t>
+    <t>Flange pescoo</t>
   </si>
   <si>
-    <t>10005615</t>
+    <t>10312742</t>
   </si>
   <si>
-    <t>10005662</t>
+    <t>junta circular para flange</t>
   </si>
   <si>
-    <t>10007205</t>
+    <t>10360352</t>
   </si>
   <si>
-    <t>10007435</t>
+    <t>codigo gp</t>
   </si>
   <si>
-    <t>10009330</t>
+    <t>10390568</t>
+  </si>
+  <si>
+    <t>tubo condução de aço carbono</t>
+  </si>
+  <si>
+    <t>10390629</t>
+  </si>
+  <si>
+    <t>10559349</t>
+  </si>
+  <si>
+    <t>11389612</t>
+  </si>
+  <si>
+    <t>11389614</t>
   </si>
   <si>
     <t xml:space="preserve"> NOTAS:</t>
@@ -1408,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2163,7 +2151,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2214,13 +2202,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -47867,7 +47852,7 @@
   <dimension ref="A1:BR63"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="160" zoomScaleNormal="100" view="pageBreakPreview">
-      <selection activeCell="AV6" sqref="AV6"/>
+      <selection activeCell="BH8" sqref="BH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.109375" customHeight="1"/>
@@ -48329,14 +48314,14 @@
       <c r="AY6" s="219"/>
       <c r="AZ6" s="219"/>
       <c r="BA6" s="219"/>
-      <c r="BB6" s="219" t="s">
+      <c r="BB6" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="BC6" s="219"/>
-      <c r="BD6" s="219"/>
-      <c r="BE6" s="219"/>
-      <c r="BF6" s="219"/>
-      <c r="BG6" s="219"/>
+      <c r="BC6" s="221"/>
+      <c r="BD6" s="221"/>
+      <c r="BE6" s="221"/>
+      <c r="BF6" s="221"/>
+      <c r="BG6" s="222"/>
       <c r="BH6" s="220" t="s">
         <v>53</v>
       </c>
@@ -48408,7 +48393,7 @@
       <c r="AT7" s="230"/>
       <c r="AU7" s="231"/>
       <c r="AV7" s="232">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="232"/>
       <c r="AX7" s="232"/>
@@ -48416,7 +48401,7 @@
       <c r="AZ7" s="232"/>
       <c r="BA7" s="232"/>
       <c r="BB7" s="233">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BC7" s="233"/>
       <c r="BD7" s="233"/>
@@ -48494,7 +48479,7 @@
       <c r="AT8" s="230"/>
       <c r="AU8" s="231"/>
       <c r="AV8" s="238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="239"/>
       <c r="AX8" s="239"/>
@@ -48502,7 +48487,7 @@
       <c r="AZ8" s="239"/>
       <c r="BA8" s="240"/>
       <c r="BB8" s="226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" s="227"/>
       <c r="BD8" s="227"/>
@@ -48580,7 +48565,7 @@
       <c r="AT9" s="230"/>
       <c r="AU9" s="231"/>
       <c r="AV9" s="238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="239"/>
       <c r="AX9" s="239"/>
@@ -48588,7 +48573,7 @@
       <c r="AZ9" s="239"/>
       <c r="BA9" s="240"/>
       <c r="BB9" s="226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC9" s="227"/>
       <c r="BD9" s="227"/>
@@ -48666,7 +48651,7 @@
       <c r="AT10" s="230"/>
       <c r="AU10" s="231"/>
       <c r="AV10" s="238">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW10" s="239"/>
       <c r="AX10" s="239"/>
@@ -48674,7 +48659,7 @@
       <c r="AZ10" s="239"/>
       <c r="BA10" s="240"/>
       <c r="BB10" s="226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC10" s="227"/>
       <c r="BD10" s="227"/>
@@ -48682,7 +48667,7 @@
       <c r="BF10" s="227"/>
       <c r="BG10" s="228"/>
       <c r="BH10" s="226">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="BI10" s="227"/>
       <c r="BJ10" s="227"/>
@@ -48752,7 +48737,7 @@
       <c r="AT11" s="230"/>
       <c r="AU11" s="231"/>
       <c r="AV11" s="238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="239"/>
       <c r="AX11" s="239"/>
@@ -48768,7 +48753,7 @@
       <c r="BF11" s="227"/>
       <c r="BG11" s="228"/>
       <c r="BH11" s="226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI11" s="227"/>
       <c r="BJ11" s="227"/>
@@ -48838,7 +48823,7 @@
       <c r="AT12" s="230"/>
       <c r="AU12" s="231"/>
       <c r="AV12" s="238">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW12" s="239"/>
       <c r="AX12" s="239"/>
@@ -48846,7 +48831,7 @@
       <c r="AZ12" s="239"/>
       <c r="BA12" s="240"/>
       <c r="BB12" s="226">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC12" s="227"/>
       <c r="BD12" s="227"/>
@@ -48854,7 +48839,7 @@
       <c r="BF12" s="227"/>
       <c r="BG12" s="228"/>
       <c r="BH12" s="226">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="BI12" s="227"/>
       <c r="BJ12" s="227"/>
@@ -48886,7 +48871,7 @@
       <c r="J13" s="243"/>
       <c r="K13" s="244"/>
       <c r="L13" s="229" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M13" s="230"/>
       <c r="N13" s="230"/>
@@ -48924,7 +48909,7 @@
       <c r="AT13" s="230"/>
       <c r="AU13" s="231"/>
       <c r="AV13" s="238">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW13" s="239"/>
       <c r="AX13" s="239"/>
@@ -48932,7 +48917,7 @@
       <c r="AZ13" s="239"/>
       <c r="BA13" s="240"/>
       <c r="BB13" s="226">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BC13" s="227"/>
       <c r="BD13" s="227"/>
@@ -48940,7 +48925,7 @@
       <c r="BF13" s="227"/>
       <c r="BG13" s="228"/>
       <c r="BH13" s="226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI13" s="227"/>
       <c r="BJ13" s="227"/>
@@ -48963,7 +48948,7 @@
       <c r="C14" s="225"/>
       <c r="D14" s="225"/>
       <c r="E14" s="242" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="243"/>
       <c r="G14" s="243"/>
@@ -48972,7 +48957,7 @@
       <c r="J14" s="243"/>
       <c r="K14" s="244"/>
       <c r="L14" s="229" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="230"/>
       <c r="N14" s="230"/>
@@ -49010,7 +48995,7 @@
       <c r="AT14" s="230"/>
       <c r="AU14" s="231"/>
       <c r="AV14" s="238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="239"/>
       <c r="AX14" s="239"/>
@@ -49026,7 +49011,7 @@
       <c r="BF14" s="227"/>
       <c r="BG14" s="228"/>
       <c r="BH14" s="226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI14" s="227"/>
       <c r="BJ14" s="227"/>
@@ -49049,7 +49034,7 @@
       <c r="C15" s="233"/>
       <c r="D15" s="233"/>
       <c r="E15" s="233" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="233"/>
       <c r="G15" s="233"/>
@@ -49058,7 +49043,7 @@
       <c r="J15" s="233"/>
       <c r="K15" s="233"/>
       <c r="L15" s="246" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15" s="246"/>
       <c r="N15" s="246"/>
@@ -49104,7 +49089,7 @@
       <c r="AZ15" s="247"/>
       <c r="BA15" s="247"/>
       <c r="BB15" s="233">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="233"/>
       <c r="BD15" s="233"/>
@@ -49112,14 +49097,14 @@
       <c r="BF15" s="233"/>
       <c r="BG15" s="233"/>
       <c r="BH15" s="226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI15" s="227"/>
       <c r="BJ15" s="227"/>
       <c r="BK15" s="227"/>
       <c r="BL15" s="228"/>
       <c r="BM15" s="226" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="BN15" s="227"/>
       <c r="BO15" s="227"/>
@@ -49182,7 +49167,7 @@
       <c r="AT16" s="246"/>
       <c r="AU16" s="246"/>
       <c r="AV16" s="247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="247"/>
       <c r="AX16" s="247"/>
@@ -49190,7 +49175,7 @@
       <c r="AZ16" s="247"/>
       <c r="BA16" s="247"/>
       <c r="BB16" s="233">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="233"/>
       <c r="BD16" s="233"/>
@@ -49198,7 +49183,7 @@
       <c r="BF16" s="233"/>
       <c r="BG16" s="233"/>
       <c r="BH16" s="226">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="BI16" s="227"/>
       <c r="BJ16" s="227"/>
@@ -49230,7 +49215,7 @@
       <c r="J17" s="233"/>
       <c r="K17" s="233"/>
       <c r="L17" s="246" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" s="246"/>
       <c r="N17" s="246"/>
@@ -49268,7 +49253,7 @@
       <c r="AT17" s="246"/>
       <c r="AU17" s="246"/>
       <c r="AV17" s="247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="247"/>
       <c r="AX17" s="247"/>
@@ -49276,7 +49261,7 @@
       <c r="AZ17" s="247"/>
       <c r="BA17" s="247"/>
       <c r="BB17" s="233">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BC17" s="233"/>
       <c r="BD17" s="233"/>
@@ -49284,7 +49269,7 @@
       <c r="BF17" s="233"/>
       <c r="BG17" s="233"/>
       <c r="BH17" s="226">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BI17" s="227"/>
       <c r="BJ17" s="227"/>
@@ -49307,7 +49292,7 @@
       <c r="C18" s="225"/>
       <c r="D18" s="225"/>
       <c r="E18" s="233" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="233"/>
       <c r="G18" s="233"/>
@@ -49315,46 +49300,46 @@
       <c r="I18" s="233"/>
       <c r="J18" s="233"/>
       <c r="K18" s="233"/>
-      <c r="L18" s="248" t="s">
-        <v>73</v>
+      <c r="L18" s="246" t="s">
+        <v>77</v>
       </c>
-      <c r="M18" s="248"/>
-      <c r="N18" s="248"/>
-      <c r="O18" s="248"/>
-      <c r="P18" s="248"/>
-      <c r="Q18" s="248"/>
-      <c r="R18" s="248"/>
-      <c r="S18" s="248"/>
-      <c r="T18" s="248"/>
-      <c r="U18" s="248"/>
-      <c r="V18" s="248"/>
-      <c r="W18" s="248"/>
-      <c r="X18" s="248"/>
-      <c r="Y18" s="248"/>
-      <c r="Z18" s="248"/>
-      <c r="AA18" s="248"/>
-      <c r="AB18" s="248"/>
-      <c r="AC18" s="248"/>
-      <c r="AD18" s="248"/>
-      <c r="AE18" s="248"/>
-      <c r="AF18" s="248"/>
-      <c r="AG18" s="248"/>
-      <c r="AH18" s="248"/>
-      <c r="AI18" s="248"/>
-      <c r="AJ18" s="248"/>
-      <c r="AK18" s="248"/>
-      <c r="AL18" s="248"/>
-      <c r="AM18" s="248"/>
-      <c r="AN18" s="248"/>
-      <c r="AO18" s="248"/>
-      <c r="AP18" s="248"/>
-      <c r="AQ18" s="248"/>
-      <c r="AR18" s="248"/>
-      <c r="AS18" s="248"/>
-      <c r="AT18" s="248"/>
-      <c r="AU18" s="248"/>
+      <c r="M18" s="246"/>
+      <c r="N18" s="246"/>
+      <c r="O18" s="246"/>
+      <c r="P18" s="246"/>
+      <c r="Q18" s="246"/>
+      <c r="R18" s="246"/>
+      <c r="S18" s="246"/>
+      <c r="T18" s="246"/>
+      <c r="U18" s="246"/>
+      <c r="V18" s="246"/>
+      <c r="W18" s="246"/>
+      <c r="X18" s="246"/>
+      <c r="Y18" s="246"/>
+      <c r="Z18" s="246"/>
+      <c r="AA18" s="246"/>
+      <c r="AB18" s="246"/>
+      <c r="AC18" s="246"/>
+      <c r="AD18" s="246"/>
+      <c r="AE18" s="246"/>
+      <c r="AF18" s="246"/>
+      <c r="AG18" s="246"/>
+      <c r="AH18" s="246"/>
+      <c r="AI18" s="246"/>
+      <c r="AJ18" s="246"/>
+      <c r="AK18" s="246"/>
+      <c r="AL18" s="246"/>
+      <c r="AM18" s="246"/>
+      <c r="AN18" s="246"/>
+      <c r="AO18" s="246"/>
+      <c r="AP18" s="246"/>
+      <c r="AQ18" s="246"/>
+      <c r="AR18" s="246"/>
+      <c r="AS18" s="246"/>
+      <c r="AT18" s="246"/>
+      <c r="AU18" s="246"/>
       <c r="AV18" s="247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="247"/>
       <c r="AX18" s="247"/>
@@ -49362,7 +49347,7 @@
       <c r="AZ18" s="247"/>
       <c r="BA18" s="247"/>
       <c r="BB18" s="233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="233"/>
       <c r="BD18" s="233"/>
@@ -49370,7 +49355,7 @@
       <c r="BF18" s="233"/>
       <c r="BG18" s="233"/>
       <c r="BH18" s="226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI18" s="227"/>
       <c r="BJ18" s="227"/>
@@ -49393,7 +49378,7 @@
       <c r="C19" s="225"/>
       <c r="D19" s="225"/>
       <c r="E19" s="233" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" s="233"/>
       <c r="G19" s="233"/>
@@ -49402,7 +49387,7 @@
       <c r="J19" s="233"/>
       <c r="K19" s="233"/>
       <c r="L19" s="246" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M19" s="246"/>
       <c r="N19" s="246"/>
@@ -49440,7 +49425,7 @@
       <c r="AT19" s="246"/>
       <c r="AU19" s="246"/>
       <c r="AV19" s="247">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="247"/>
       <c r="AX19" s="247"/>
@@ -49448,7 +49433,7 @@
       <c r="AZ19" s="247"/>
       <c r="BA19" s="247"/>
       <c r="BB19" s="233">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="BC19" s="233"/>
       <c r="BD19" s="233"/>
@@ -49456,7 +49441,7 @@
       <c r="BF19" s="233"/>
       <c r="BG19" s="233"/>
       <c r="BH19" s="226">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="BI19" s="227"/>
       <c r="BJ19" s="227"/>
@@ -49479,7 +49464,7 @@
       <c r="C20" s="225"/>
       <c r="D20" s="225"/>
       <c r="E20" s="233" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F20" s="233"/>
       <c r="G20" s="233"/>
@@ -49488,7 +49473,7 @@
       <c r="J20" s="233"/>
       <c r="K20" s="233"/>
       <c r="L20" s="246" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M20" s="246"/>
       <c r="N20" s="246"/>
@@ -49526,7 +49511,7 @@
       <c r="AT20" s="246"/>
       <c r="AU20" s="246"/>
       <c r="AV20" s="247">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AW20" s="247"/>
       <c r="AX20" s="247"/>
@@ -49534,7 +49519,7 @@
       <c r="AZ20" s="247"/>
       <c r="BA20" s="247"/>
       <c r="BB20" s="233">
-        <v>2</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="BC20" s="233"/>
       <c r="BD20" s="233"/>
@@ -49542,7 +49527,7 @@
       <c r="BF20" s="233"/>
       <c r="BG20" s="233"/>
       <c r="BH20" s="226">
-        <v>2</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="BI20" s="227"/>
       <c r="BJ20" s="227"/>
@@ -49565,7 +49550,7 @@
       <c r="C21" s="225"/>
       <c r="D21" s="225"/>
       <c r="E21" s="233" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" s="233"/>
       <c r="G21" s="233"/>
@@ -49574,7 +49559,7 @@
       <c r="J21" s="233"/>
       <c r="K21" s="233"/>
       <c r="L21" s="246" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M21" s="246"/>
       <c r="N21" s="246"/>
@@ -49612,7 +49597,7 @@
       <c r="AT21" s="246"/>
       <c r="AU21" s="246"/>
       <c r="AV21" s="247">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AW21" s="247"/>
       <c r="AX21" s="247"/>
@@ -49620,7 +49605,7 @@
       <c r="AZ21" s="247"/>
       <c r="BA21" s="247"/>
       <c r="BB21" s="233">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BC21" s="233"/>
       <c r="BD21" s="233"/>
@@ -49628,7 +49613,7 @@
       <c r="BF21" s="233"/>
       <c r="BG21" s="233"/>
       <c r="BH21" s="226">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="BI21" s="227"/>
       <c r="BJ21" s="227"/>
@@ -49651,7 +49636,7 @@
       <c r="C22" s="225"/>
       <c r="D22" s="225"/>
       <c r="E22" s="233" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F22" s="233"/>
       <c r="G22" s="233"/>
@@ -49660,7 +49645,7 @@
       <c r="J22" s="233"/>
       <c r="K22" s="233"/>
       <c r="L22" s="246" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="M22" s="246"/>
       <c r="N22" s="246"/>
@@ -49698,7 +49683,7 @@
       <c r="AT22" s="246"/>
       <c r="AU22" s="246"/>
       <c r="AV22" s="247">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW22" s="247"/>
       <c r="AX22" s="247"/>
@@ -49706,7 +49691,7 @@
       <c r="AZ22" s="247"/>
       <c r="BA22" s="247"/>
       <c r="BB22" s="233">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="BC22" s="233"/>
       <c r="BD22" s="233"/>
@@ -49714,7 +49699,7 @@
       <c r="BF22" s="233"/>
       <c r="BG22" s="233"/>
       <c r="BH22" s="226">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI22" s="227"/>
       <c r="BJ22" s="227"/>
@@ -49737,7 +49722,7 @@
       <c r="C23" s="225"/>
       <c r="D23" s="225"/>
       <c r="E23" s="233" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F23" s="233"/>
       <c r="G23" s="233"/>
@@ -49746,7 +49731,7 @@
       <c r="J23" s="233"/>
       <c r="K23" s="233"/>
       <c r="L23" s="246" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M23" s="246"/>
       <c r="N23" s="246"/>
@@ -49784,7 +49769,7 @@
       <c r="AT23" s="246"/>
       <c r="AU23" s="246"/>
       <c r="AV23" s="247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW23" s="247"/>
       <c r="AX23" s="247"/>
@@ -49792,7 +49777,7 @@
       <c r="AZ23" s="247"/>
       <c r="BA23" s="247"/>
       <c r="BB23" s="233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC23" s="233"/>
       <c r="BD23" s="233"/>
@@ -49800,7 +49785,7 @@
       <c r="BF23" s="233"/>
       <c r="BG23" s="233"/>
       <c r="BH23" s="226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI23" s="227"/>
       <c r="BJ23" s="227"/>
@@ -49823,7 +49808,7 @@
       <c r="C24" s="225"/>
       <c r="D24" s="225"/>
       <c r="E24" s="233" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24" s="233"/>
       <c r="G24" s="233"/>
@@ -49832,7 +49817,7 @@
       <c r="J24" s="233"/>
       <c r="K24" s="233"/>
       <c r="L24" s="246" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M24" s="246"/>
       <c r="N24" s="246"/>
@@ -49870,7 +49855,7 @@
       <c r="AT24" s="246"/>
       <c r="AU24" s="246"/>
       <c r="AV24" s="247">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW24" s="247"/>
       <c r="AX24" s="247"/>
@@ -49878,7 +49863,7 @@
       <c r="AZ24" s="247"/>
       <c r="BA24" s="247"/>
       <c r="BB24" s="233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="233"/>
       <c r="BD24" s="233"/>
@@ -49886,7 +49871,7 @@
       <c r="BF24" s="233"/>
       <c r="BG24" s="233"/>
       <c r="BH24" s="226">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="BI24" s="227"/>
       <c r="BJ24" s="227"/>
@@ -49902,85 +49887,71 @@
       <c r="BR24" s="241"/>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A25" s="245">
-        <v>19</v>
-      </c>
+      <c r="A25" s="245"/>
       <c r="B25" s="233"/>
       <c r="C25" s="233"/>
       <c r="D25" s="233"/>
-      <c r="E25" s="233" t="s">
-        <v>85</v>
-      </c>
+      <c r="E25" s="233"/>
       <c r="F25" s="233"/>
       <c r="G25" s="233"/>
       <c r="H25" s="233"/>
       <c r="I25" s="233"/>
       <c r="J25" s="233"/>
       <c r="K25" s="233"/>
-      <c r="L25" s="249" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="249"/>
-      <c r="N25" s="249"/>
-      <c r="O25" s="249"/>
-      <c r="P25" s="249"/>
-      <c r="Q25" s="249"/>
-      <c r="R25" s="249"/>
-      <c r="S25" s="249"/>
-      <c r="T25" s="249"/>
-      <c r="U25" s="249"/>
-      <c r="V25" s="249"/>
-      <c r="W25" s="249"/>
-      <c r="X25" s="249"/>
-      <c r="Y25" s="249"/>
-      <c r="Z25" s="249"/>
-      <c r="AA25" s="249"/>
-      <c r="AB25" s="249"/>
-      <c r="AC25" s="249"/>
-      <c r="AD25" s="249"/>
-      <c r="AE25" s="249"/>
-      <c r="AF25" s="249"/>
-      <c r="AG25" s="249"/>
-      <c r="AH25" s="249"/>
-      <c r="AI25" s="249"/>
-      <c r="AJ25" s="249"/>
-      <c r="AK25" s="249"/>
-      <c r="AL25" s="249"/>
-      <c r="AM25" s="249"/>
-      <c r="AN25" s="249"/>
-      <c r="AO25" s="249"/>
-      <c r="AP25" s="249"/>
-      <c r="AQ25" s="249"/>
-      <c r="AR25" s="249"/>
-      <c r="AS25" s="249"/>
-      <c r="AT25" s="249"/>
-      <c r="AU25" s="249"/>
-      <c r="AV25" s="247">
-        <v>0</v>
-      </c>
+      <c r="L25" s="248"/>
+      <c r="M25" s="248"/>
+      <c r="N25" s="248"/>
+      <c r="O25" s="248"/>
+      <c r="P25" s="248"/>
+      <c r="Q25" s="248"/>
+      <c r="R25" s="248"/>
+      <c r="S25" s="248"/>
+      <c r="T25" s="248"/>
+      <c r="U25" s="248"/>
+      <c r="V25" s="248"/>
+      <c r="W25" s="248"/>
+      <c r="X25" s="248"/>
+      <c r="Y25" s="248"/>
+      <c r="Z25" s="248"/>
+      <c r="AA25" s="248"/>
+      <c r="AB25" s="248"/>
+      <c r="AC25" s="248"/>
+      <c r="AD25" s="248"/>
+      <c r="AE25" s="248"/>
+      <c r="AF25" s="248"/>
+      <c r="AG25" s="248"/>
+      <c r="AH25" s="248"/>
+      <c r="AI25" s="248"/>
+      <c r="AJ25" s="248"/>
+      <c r="AK25" s="248"/>
+      <c r="AL25" s="248"/>
+      <c r="AM25" s="248"/>
+      <c r="AN25" s="248"/>
+      <c r="AO25" s="248"/>
+      <c r="AP25" s="248"/>
+      <c r="AQ25" s="248"/>
+      <c r="AR25" s="248"/>
+      <c r="AS25" s="248"/>
+      <c r="AT25" s="248"/>
+      <c r="AU25" s="248"/>
+      <c r="AV25" s="247"/>
       <c r="AW25" s="247"/>
       <c r="AX25" s="247"/>
       <c r="AY25" s="247"/>
       <c r="AZ25" s="247"/>
       <c r="BA25" s="247"/>
-      <c r="BB25" s="233">
-        <v>1</v>
-      </c>
+      <c r="BB25" s="233"/>
       <c r="BC25" s="233"/>
       <c r="BD25" s="233"/>
       <c r="BE25" s="233"/>
       <c r="BF25" s="233"/>
       <c r="BG25" s="233"/>
-      <c r="BH25" s="226">
-        <v>1</v>
-      </c>
+      <c r="BH25" s="226"/>
       <c r="BI25" s="227"/>
       <c r="BJ25" s="227"/>
       <c r="BK25" s="227"/>
       <c r="BL25" s="228"/>
-      <c r="BM25" s="226" t="s">
-        <v>57</v>
-      </c>
+      <c r="BM25" s="226"/>
       <c r="BN25" s="227"/>
       <c r="BO25" s="227"/>
       <c r="BP25" s="227"/>
@@ -49988,85 +49959,71 @@
       <c r="BR25" s="241"/>
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A26" s="245">
-        <v>20</v>
-      </c>
+      <c r="A26" s="245"/>
       <c r="B26" s="233"/>
       <c r="C26" s="233"/>
       <c r="D26" s="233"/>
-      <c r="E26" s="233" t="s">
-        <v>86</v>
-      </c>
+      <c r="E26" s="233"/>
       <c r="F26" s="233"/>
       <c r="G26" s="233"/>
       <c r="H26" s="233"/>
       <c r="I26" s="233"/>
       <c r="J26" s="233"/>
       <c r="K26" s="233"/>
-      <c r="L26" s="249" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" s="249"/>
-      <c r="N26" s="249"/>
-      <c r="O26" s="249"/>
-      <c r="P26" s="249"/>
-      <c r="Q26" s="249"/>
-      <c r="R26" s="249"/>
-      <c r="S26" s="249"/>
-      <c r="T26" s="249"/>
-      <c r="U26" s="249"/>
-      <c r="V26" s="249"/>
-      <c r="W26" s="249"/>
-      <c r="X26" s="249"/>
-      <c r="Y26" s="249"/>
-      <c r="Z26" s="249"/>
-      <c r="AA26" s="249"/>
-      <c r="AB26" s="249"/>
-      <c r="AC26" s="249"/>
-      <c r="AD26" s="249"/>
-      <c r="AE26" s="249"/>
-      <c r="AF26" s="249"/>
-      <c r="AG26" s="249"/>
-      <c r="AH26" s="249"/>
-      <c r="AI26" s="249"/>
-      <c r="AJ26" s="249"/>
-      <c r="AK26" s="249"/>
-      <c r="AL26" s="249"/>
-      <c r="AM26" s="249"/>
-      <c r="AN26" s="249"/>
-      <c r="AO26" s="249"/>
-      <c r="AP26" s="249"/>
-      <c r="AQ26" s="249"/>
-      <c r="AR26" s="249"/>
-      <c r="AS26" s="249"/>
-      <c r="AT26" s="249"/>
-      <c r="AU26" s="249"/>
-      <c r="AV26" s="247">
-        <v>0</v>
-      </c>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
+      <c r="P26" s="248"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
+      <c r="S26" s="248"/>
+      <c r="T26" s="248"/>
+      <c r="U26" s="248"/>
+      <c r="V26" s="248"/>
+      <c r="W26" s="248"/>
+      <c r="X26" s="248"/>
+      <c r="Y26" s="248"/>
+      <c r="Z26" s="248"/>
+      <c r="AA26" s="248"/>
+      <c r="AB26" s="248"/>
+      <c r="AC26" s="248"/>
+      <c r="AD26" s="248"/>
+      <c r="AE26" s="248"/>
+      <c r="AF26" s="248"/>
+      <c r="AG26" s="248"/>
+      <c r="AH26" s="248"/>
+      <c r="AI26" s="248"/>
+      <c r="AJ26" s="248"/>
+      <c r="AK26" s="248"/>
+      <c r="AL26" s="248"/>
+      <c r="AM26" s="248"/>
+      <c r="AN26" s="248"/>
+      <c r="AO26" s="248"/>
+      <c r="AP26" s="248"/>
+      <c r="AQ26" s="248"/>
+      <c r="AR26" s="248"/>
+      <c r="AS26" s="248"/>
+      <c r="AT26" s="248"/>
+      <c r="AU26" s="248"/>
+      <c r="AV26" s="247"/>
       <c r="AW26" s="247"/>
       <c r="AX26" s="247"/>
       <c r="AY26" s="247"/>
       <c r="AZ26" s="247"/>
       <c r="BA26" s="247"/>
-      <c r="BB26" s="233">
-        <v>11</v>
-      </c>
+      <c r="BB26" s="233"/>
       <c r="BC26" s="233"/>
       <c r="BD26" s="233"/>
       <c r="BE26" s="233"/>
       <c r="BF26" s="233"/>
       <c r="BG26" s="233"/>
-      <c r="BH26" s="226">
-        <v>11</v>
-      </c>
+      <c r="BH26" s="226"/>
       <c r="BI26" s="227"/>
       <c r="BJ26" s="227"/>
       <c r="BK26" s="227"/>
       <c r="BL26" s="228"/>
-      <c r="BM26" s="226" t="s">
-        <v>57</v>
-      </c>
+      <c r="BM26" s="226"/>
       <c r="BN26" s="227"/>
       <c r="BO26" s="227"/>
       <c r="BP26" s="227"/>
@@ -50074,85 +50031,71 @@
       <c r="BR26" s="241"/>
     </row>
     <row r="27" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A27" s="245">
-        <v>21</v>
-      </c>
+      <c r="A27" s="245"/>
       <c r="B27" s="233"/>
       <c r="C27" s="233"/>
       <c r="D27" s="233"/>
-      <c r="E27" s="233" t="s">
-        <v>87</v>
-      </c>
+      <c r="E27" s="233"/>
       <c r="F27" s="233"/>
       <c r="G27" s="233"/>
       <c r="H27" s="233"/>
       <c r="I27" s="233"/>
       <c r="J27" s="233"/>
       <c r="K27" s="233"/>
-      <c r="L27" s="249" t="s">
-        <v>73</v>
-      </c>
-      <c r="M27" s="249"/>
-      <c r="N27" s="249"/>
-      <c r="O27" s="249"/>
-      <c r="P27" s="249"/>
-      <c r="Q27" s="249"/>
-      <c r="R27" s="249"/>
-      <c r="S27" s="249"/>
-      <c r="T27" s="249"/>
-      <c r="U27" s="249"/>
-      <c r="V27" s="249"/>
-      <c r="W27" s="249"/>
-      <c r="X27" s="249"/>
-      <c r="Y27" s="249"/>
-      <c r="Z27" s="249"/>
-      <c r="AA27" s="249"/>
-      <c r="AB27" s="249"/>
-      <c r="AC27" s="249"/>
-      <c r="AD27" s="249"/>
-      <c r="AE27" s="249"/>
-      <c r="AF27" s="249"/>
-      <c r="AG27" s="249"/>
-      <c r="AH27" s="249"/>
-      <c r="AI27" s="249"/>
-      <c r="AJ27" s="249"/>
-      <c r="AK27" s="249"/>
-      <c r="AL27" s="249"/>
-      <c r="AM27" s="249"/>
-      <c r="AN27" s="249"/>
-      <c r="AO27" s="249"/>
-      <c r="AP27" s="249"/>
-      <c r="AQ27" s="249"/>
-      <c r="AR27" s="249"/>
-      <c r="AS27" s="249"/>
-      <c r="AT27" s="249"/>
-      <c r="AU27" s="249"/>
-      <c r="AV27" s="247">
-        <v>0</v>
-      </c>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
+      <c r="S27" s="248"/>
+      <c r="T27" s="248"/>
+      <c r="U27" s="248"/>
+      <c r="V27" s="248"/>
+      <c r="W27" s="248"/>
+      <c r="X27" s="248"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="248"/>
+      <c r="AA27" s="248"/>
+      <c r="AB27" s="248"/>
+      <c r="AC27" s="248"/>
+      <c r="AD27" s="248"/>
+      <c r="AE27" s="248"/>
+      <c r="AF27" s="248"/>
+      <c r="AG27" s="248"/>
+      <c r="AH27" s="248"/>
+      <c r="AI27" s="248"/>
+      <c r="AJ27" s="248"/>
+      <c r="AK27" s="248"/>
+      <c r="AL27" s="248"/>
+      <c r="AM27" s="248"/>
+      <c r="AN27" s="248"/>
+      <c r="AO27" s="248"/>
+      <c r="AP27" s="248"/>
+      <c r="AQ27" s="248"/>
+      <c r="AR27" s="248"/>
+      <c r="AS27" s="248"/>
+      <c r="AT27" s="248"/>
+      <c r="AU27" s="248"/>
+      <c r="AV27" s="247"/>
       <c r="AW27" s="247"/>
       <c r="AX27" s="247"/>
       <c r="AY27" s="247"/>
       <c r="AZ27" s="247"/>
       <c r="BA27" s="247"/>
-      <c r="BB27" s="233">
-        <v>12</v>
-      </c>
+      <c r="BB27" s="233"/>
       <c r="BC27" s="233"/>
       <c r="BD27" s="233"/>
       <c r="BE27" s="233"/>
       <c r="BF27" s="233"/>
       <c r="BG27" s="233"/>
-      <c r="BH27" s="226">
-        <v>12</v>
-      </c>
+      <c r="BH27" s="226"/>
       <c r="BI27" s="227"/>
       <c r="BJ27" s="227"/>
       <c r="BK27" s="227"/>
       <c r="BL27" s="228"/>
-      <c r="BM27" s="226" t="s">
-        <v>57</v>
-      </c>
+      <c r="BM27" s="226"/>
       <c r="BN27" s="227"/>
       <c r="BO27" s="227"/>
       <c r="BP27" s="227"/>
@@ -50160,85 +50103,71 @@
       <c r="BR27" s="241"/>
     </row>
     <row r="28" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A28" s="245">
-        <v>22</v>
-      </c>
+      <c r="A28" s="245"/>
       <c r="B28" s="233"/>
       <c r="C28" s="233"/>
       <c r="D28" s="233"/>
-      <c r="E28" s="226" t="s">
-        <v>88</v>
-      </c>
+      <c r="E28" s="226"/>
       <c r="F28" s="227"/>
       <c r="G28" s="227"/>
       <c r="H28" s="227"/>
       <c r="I28" s="227"/>
       <c r="J28" s="227"/>
       <c r="K28" s="228"/>
-      <c r="L28" s="250" t="s">
-        <v>73</v>
-      </c>
-      <c r="M28" s="251"/>
-      <c r="N28" s="251"/>
-      <c r="O28" s="251"/>
-      <c r="P28" s="251"/>
-      <c r="Q28" s="251"/>
-      <c r="R28" s="251"/>
-      <c r="S28" s="251"/>
-      <c r="T28" s="251"/>
-      <c r="U28" s="251"/>
-      <c r="V28" s="251"/>
-      <c r="W28" s="251"/>
-      <c r="X28" s="251"/>
-      <c r="Y28" s="251"/>
-      <c r="Z28" s="251"/>
-      <c r="AA28" s="251"/>
-      <c r="AB28" s="251"/>
-      <c r="AC28" s="251"/>
-      <c r="AD28" s="251"/>
-      <c r="AE28" s="251"/>
-      <c r="AF28" s="251"/>
-      <c r="AG28" s="251"/>
-      <c r="AH28" s="251"/>
-      <c r="AI28" s="251"/>
-      <c r="AJ28" s="251"/>
-      <c r="AK28" s="251"/>
-      <c r="AL28" s="251"/>
-      <c r="AM28" s="251"/>
-      <c r="AN28" s="251"/>
-      <c r="AO28" s="251"/>
-      <c r="AP28" s="251"/>
-      <c r="AQ28" s="251"/>
-      <c r="AR28" s="251"/>
-      <c r="AS28" s="251"/>
-      <c r="AT28" s="251"/>
-      <c r="AU28" s="252"/>
-      <c r="AV28" s="253">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="254"/>
-      <c r="AX28" s="254"/>
-      <c r="AY28" s="254"/>
-      <c r="AZ28" s="254"/>
-      <c r="BA28" s="255"/>
-      <c r="BB28" s="226">
-        <v>4</v>
-      </c>
+      <c r="L28" s="249"/>
+      <c r="M28" s="250"/>
+      <c r="N28" s="250"/>
+      <c r="O28" s="250"/>
+      <c r="P28" s="250"/>
+      <c r="Q28" s="250"/>
+      <c r="R28" s="250"/>
+      <c r="S28" s="250"/>
+      <c r="T28" s="250"/>
+      <c r="U28" s="250"/>
+      <c r="V28" s="250"/>
+      <c r="W28" s="250"/>
+      <c r="X28" s="250"/>
+      <c r="Y28" s="250"/>
+      <c r="Z28" s="250"/>
+      <c r="AA28" s="250"/>
+      <c r="AB28" s="250"/>
+      <c r="AC28" s="250"/>
+      <c r="AD28" s="250"/>
+      <c r="AE28" s="250"/>
+      <c r="AF28" s="250"/>
+      <c r="AG28" s="250"/>
+      <c r="AH28" s="250"/>
+      <c r="AI28" s="250"/>
+      <c r="AJ28" s="250"/>
+      <c r="AK28" s="250"/>
+      <c r="AL28" s="250"/>
+      <c r="AM28" s="250"/>
+      <c r="AN28" s="250"/>
+      <c r="AO28" s="250"/>
+      <c r="AP28" s="250"/>
+      <c r="AQ28" s="250"/>
+      <c r="AR28" s="250"/>
+      <c r="AS28" s="250"/>
+      <c r="AT28" s="250"/>
+      <c r="AU28" s="251"/>
+      <c r="AV28" s="252"/>
+      <c r="AW28" s="253"/>
+      <c r="AX28" s="253"/>
+      <c r="AY28" s="253"/>
+      <c r="AZ28" s="253"/>
+      <c r="BA28" s="254"/>
+      <c r="BB28" s="226"/>
       <c r="BC28" s="227"/>
       <c r="BD28" s="227"/>
       <c r="BE28" s="227"/>
       <c r="BF28" s="227"/>
       <c r="BG28" s="228"/>
-      <c r="BH28" s="226">
-        <v>4</v>
-      </c>
+      <c r="BH28" s="226"/>
       <c r="BI28" s="227"/>
       <c r="BJ28" s="227"/>
       <c r="BK28" s="227"/>
       <c r="BL28" s="228"/>
-      <c r="BM28" s="226" t="s">
-        <v>57</v>
-      </c>
+      <c r="BM28" s="226"/>
       <c r="BN28" s="227"/>
       <c r="BO28" s="227"/>
       <c r="BP28" s="227"/>
@@ -50246,85 +50175,71 @@
       <c r="BR28" s="241"/>
     </row>
     <row r="29" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A29" s="245">
-        <v>23</v>
-      </c>
+      <c r="A29" s="245"/>
       <c r="B29" s="233"/>
       <c r="C29" s="233"/>
       <c r="D29" s="233"/>
-      <c r="E29" s="226" t="s">
-        <v>89</v>
-      </c>
+      <c r="E29" s="226"/>
       <c r="F29" s="227"/>
       <c r="G29" s="227"/>
       <c r="H29" s="227"/>
       <c r="I29" s="227"/>
       <c r="J29" s="227"/>
       <c r="K29" s="228"/>
-      <c r="L29" s="250" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="251"/>
-      <c r="N29" s="251"/>
-      <c r="O29" s="251"/>
-      <c r="P29" s="251"/>
-      <c r="Q29" s="251"/>
-      <c r="R29" s="251"/>
-      <c r="S29" s="251"/>
-      <c r="T29" s="251"/>
-      <c r="U29" s="251"/>
-      <c r="V29" s="251"/>
-      <c r="W29" s="251"/>
-      <c r="X29" s="251"/>
-      <c r="Y29" s="251"/>
-      <c r="Z29" s="251"/>
-      <c r="AA29" s="251"/>
-      <c r="AB29" s="251"/>
-      <c r="AC29" s="251"/>
-      <c r="AD29" s="251"/>
-      <c r="AE29" s="251"/>
-      <c r="AF29" s="251"/>
-      <c r="AG29" s="251"/>
-      <c r="AH29" s="251"/>
-      <c r="AI29" s="251"/>
-      <c r="AJ29" s="251"/>
-      <c r="AK29" s="251"/>
-      <c r="AL29" s="251"/>
-      <c r="AM29" s="251"/>
-      <c r="AN29" s="251"/>
-      <c r="AO29" s="251"/>
-      <c r="AP29" s="251"/>
-      <c r="AQ29" s="251"/>
-      <c r="AR29" s="251"/>
-      <c r="AS29" s="251"/>
-      <c r="AT29" s="251"/>
-      <c r="AU29" s="252"/>
-      <c r="AV29" s="253">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="254"/>
-      <c r="AX29" s="254"/>
-      <c r="AY29" s="254"/>
-      <c r="AZ29" s="254"/>
-      <c r="BA29" s="255"/>
-      <c r="BB29" s="226">
-        <v>1</v>
-      </c>
+      <c r="L29" s="249"/>
+      <c r="M29" s="250"/>
+      <c r="N29" s="250"/>
+      <c r="O29" s="250"/>
+      <c r="P29" s="250"/>
+      <c r="Q29" s="250"/>
+      <c r="R29" s="250"/>
+      <c r="S29" s="250"/>
+      <c r="T29" s="250"/>
+      <c r="U29" s="250"/>
+      <c r="V29" s="250"/>
+      <c r="W29" s="250"/>
+      <c r="X29" s="250"/>
+      <c r="Y29" s="250"/>
+      <c r="Z29" s="250"/>
+      <c r="AA29" s="250"/>
+      <c r="AB29" s="250"/>
+      <c r="AC29" s="250"/>
+      <c r="AD29" s="250"/>
+      <c r="AE29" s="250"/>
+      <c r="AF29" s="250"/>
+      <c r="AG29" s="250"/>
+      <c r="AH29" s="250"/>
+      <c r="AI29" s="250"/>
+      <c r="AJ29" s="250"/>
+      <c r="AK29" s="250"/>
+      <c r="AL29" s="250"/>
+      <c r="AM29" s="250"/>
+      <c r="AN29" s="250"/>
+      <c r="AO29" s="250"/>
+      <c r="AP29" s="250"/>
+      <c r="AQ29" s="250"/>
+      <c r="AR29" s="250"/>
+      <c r="AS29" s="250"/>
+      <c r="AT29" s="250"/>
+      <c r="AU29" s="251"/>
+      <c r="AV29" s="252"/>
+      <c r="AW29" s="253"/>
+      <c r="AX29" s="253"/>
+      <c r="AY29" s="253"/>
+      <c r="AZ29" s="253"/>
+      <c r="BA29" s="254"/>
+      <c r="BB29" s="226"/>
       <c r="BC29" s="227"/>
       <c r="BD29" s="227"/>
       <c r="BE29" s="227"/>
       <c r="BF29" s="227"/>
       <c r="BG29" s="228"/>
-      <c r="BH29" s="226">
-        <v>1</v>
-      </c>
+      <c r="BH29" s="226"/>
       <c r="BI29" s="227"/>
       <c r="BJ29" s="227"/>
       <c r="BK29" s="227"/>
       <c r="BL29" s="228"/>
-      <c r="BM29" s="226" t="s">
-        <v>57</v>
-      </c>
+      <c r="BM29" s="226"/>
       <c r="BN29" s="227"/>
       <c r="BO29" s="227"/>
       <c r="BP29" s="227"/>
@@ -50343,48 +50258,48 @@
       <c r="I30" s="233"/>
       <c r="J30" s="233"/>
       <c r="K30" s="233"/>
-      <c r="L30" s="249"/>
-      <c r="M30" s="249"/>
-      <c r="N30" s="249"/>
-      <c r="O30" s="249"/>
-      <c r="P30" s="249"/>
-      <c r="Q30" s="249"/>
-      <c r="R30" s="249"/>
-      <c r="S30" s="249"/>
-      <c r="T30" s="249"/>
-      <c r="U30" s="249"/>
-      <c r="V30" s="249"/>
-      <c r="W30" s="249"/>
-      <c r="X30" s="249"/>
-      <c r="Y30" s="249"/>
-      <c r="Z30" s="249"/>
-      <c r="AA30" s="249"/>
-      <c r="AB30" s="249"/>
-      <c r="AC30" s="249"/>
-      <c r="AD30" s="249"/>
-      <c r="AE30" s="249"/>
-      <c r="AF30" s="249"/>
-      <c r="AG30" s="249"/>
-      <c r="AH30" s="249"/>
-      <c r="AI30" s="249"/>
-      <c r="AJ30" s="249"/>
-      <c r="AK30" s="249"/>
-      <c r="AL30" s="249"/>
-      <c r="AM30" s="249"/>
-      <c r="AN30" s="249"/>
-      <c r="AO30" s="249"/>
-      <c r="AP30" s="249"/>
-      <c r="AQ30" s="249"/>
-      <c r="AR30" s="249"/>
-      <c r="AS30" s="249"/>
-      <c r="AT30" s="249"/>
-      <c r="AU30" s="249"/>
-      <c r="AV30" s="253"/>
-      <c r="AW30" s="254"/>
-      <c r="AX30" s="254"/>
-      <c r="AY30" s="254"/>
-      <c r="AZ30" s="254"/>
-      <c r="BA30" s="255"/>
+      <c r="L30" s="248"/>
+      <c r="M30" s="248"/>
+      <c r="N30" s="248"/>
+      <c r="O30" s="248"/>
+      <c r="P30" s="248"/>
+      <c r="Q30" s="248"/>
+      <c r="R30" s="248"/>
+      <c r="S30" s="248"/>
+      <c r="T30" s="248"/>
+      <c r="U30" s="248"/>
+      <c r="V30" s="248"/>
+      <c r="W30" s="248"/>
+      <c r="X30" s="248"/>
+      <c r="Y30" s="248"/>
+      <c r="Z30" s="248"/>
+      <c r="AA30" s="248"/>
+      <c r="AB30" s="248"/>
+      <c r="AC30" s="248"/>
+      <c r="AD30" s="248"/>
+      <c r="AE30" s="248"/>
+      <c r="AF30" s="248"/>
+      <c r="AG30" s="248"/>
+      <c r="AH30" s="248"/>
+      <c r="AI30" s="248"/>
+      <c r="AJ30" s="248"/>
+      <c r="AK30" s="248"/>
+      <c r="AL30" s="248"/>
+      <c r="AM30" s="248"/>
+      <c r="AN30" s="248"/>
+      <c r="AO30" s="248"/>
+      <c r="AP30" s="248"/>
+      <c r="AQ30" s="248"/>
+      <c r="AR30" s="248"/>
+      <c r="AS30" s="248"/>
+      <c r="AT30" s="248"/>
+      <c r="AU30" s="248"/>
+      <c r="AV30" s="252"/>
+      <c r="AW30" s="253"/>
+      <c r="AX30" s="253"/>
+      <c r="AY30" s="253"/>
+      <c r="AZ30" s="253"/>
+      <c r="BA30" s="254"/>
       <c r="BB30" s="226"/>
       <c r="BC30" s="227"/>
       <c r="BD30" s="227"/>
@@ -50415,48 +50330,48 @@
       <c r="I31" s="233"/>
       <c r="J31" s="233"/>
       <c r="K31" s="233"/>
-      <c r="L31" s="249"/>
-      <c r="M31" s="249"/>
-      <c r="N31" s="249"/>
-      <c r="O31" s="249"/>
-      <c r="P31" s="249"/>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="249"/>
-      <c r="S31" s="249"/>
-      <c r="T31" s="249"/>
-      <c r="U31" s="249"/>
-      <c r="V31" s="249"/>
-      <c r="W31" s="249"/>
-      <c r="X31" s="249"/>
-      <c r="Y31" s="249"/>
-      <c r="Z31" s="249"/>
-      <c r="AA31" s="249"/>
-      <c r="AB31" s="249"/>
-      <c r="AC31" s="249"/>
-      <c r="AD31" s="249"/>
-      <c r="AE31" s="249"/>
-      <c r="AF31" s="249"/>
-      <c r="AG31" s="249"/>
-      <c r="AH31" s="249"/>
-      <c r="AI31" s="249"/>
-      <c r="AJ31" s="249"/>
-      <c r="AK31" s="249"/>
-      <c r="AL31" s="249"/>
-      <c r="AM31" s="249"/>
-      <c r="AN31" s="249"/>
-      <c r="AO31" s="249"/>
-      <c r="AP31" s="249"/>
-      <c r="AQ31" s="249"/>
-      <c r="AR31" s="249"/>
-      <c r="AS31" s="249"/>
-      <c r="AT31" s="249"/>
-      <c r="AU31" s="249"/>
-      <c r="AV31" s="253"/>
-      <c r="AW31" s="254"/>
-      <c r="AX31" s="254"/>
-      <c r="AY31" s="254"/>
-      <c r="AZ31" s="254"/>
-      <c r="BA31" s="255"/>
+      <c r="L31" s="248"/>
+      <c r="M31" s="248"/>
+      <c r="N31" s="248"/>
+      <c r="O31" s="248"/>
+      <c r="P31" s="248"/>
+      <c r="Q31" s="248"/>
+      <c r="R31" s="248"/>
+      <c r="S31" s="248"/>
+      <c r="T31" s="248"/>
+      <c r="U31" s="248"/>
+      <c r="V31" s="248"/>
+      <c r="W31" s="248"/>
+      <c r="X31" s="248"/>
+      <c r="Y31" s="248"/>
+      <c r="Z31" s="248"/>
+      <c r="AA31" s="248"/>
+      <c r="AB31" s="248"/>
+      <c r="AC31" s="248"/>
+      <c r="AD31" s="248"/>
+      <c r="AE31" s="248"/>
+      <c r="AF31" s="248"/>
+      <c r="AG31" s="248"/>
+      <c r="AH31" s="248"/>
+      <c r="AI31" s="248"/>
+      <c r="AJ31" s="248"/>
+      <c r="AK31" s="248"/>
+      <c r="AL31" s="248"/>
+      <c r="AM31" s="248"/>
+      <c r="AN31" s="248"/>
+      <c r="AO31" s="248"/>
+      <c r="AP31" s="248"/>
+      <c r="AQ31" s="248"/>
+      <c r="AR31" s="248"/>
+      <c r="AS31" s="248"/>
+      <c r="AT31" s="248"/>
+      <c r="AU31" s="248"/>
+      <c r="AV31" s="252"/>
+      <c r="AW31" s="253"/>
+      <c r="AX31" s="253"/>
+      <c r="AY31" s="253"/>
+      <c r="AZ31" s="253"/>
+      <c r="BA31" s="254"/>
       <c r="BB31" s="226"/>
       <c r="BC31" s="227"/>
       <c r="BD31" s="227"/>
@@ -50487,48 +50402,48 @@
       <c r="I32" s="233"/>
       <c r="J32" s="233"/>
       <c r="K32" s="233"/>
-      <c r="L32" s="249"/>
-      <c r="M32" s="249"/>
-      <c r="N32" s="249"/>
-      <c r="O32" s="249"/>
-      <c r="P32" s="249"/>
-      <c r="Q32" s="249"/>
-      <c r="R32" s="249"/>
-      <c r="S32" s="249"/>
-      <c r="T32" s="249"/>
-      <c r="U32" s="249"/>
-      <c r="V32" s="249"/>
-      <c r="W32" s="249"/>
-      <c r="X32" s="249"/>
-      <c r="Y32" s="249"/>
-      <c r="Z32" s="249"/>
-      <c r="AA32" s="249"/>
-      <c r="AB32" s="249"/>
-      <c r="AC32" s="249"/>
-      <c r="AD32" s="249"/>
-      <c r="AE32" s="249"/>
-      <c r="AF32" s="249"/>
-      <c r="AG32" s="249"/>
-      <c r="AH32" s="249"/>
-      <c r="AI32" s="249"/>
-      <c r="AJ32" s="249"/>
-      <c r="AK32" s="249"/>
-      <c r="AL32" s="249"/>
-      <c r="AM32" s="249"/>
-      <c r="AN32" s="249"/>
-      <c r="AO32" s="249"/>
-      <c r="AP32" s="249"/>
-      <c r="AQ32" s="249"/>
-      <c r="AR32" s="249"/>
-      <c r="AS32" s="249"/>
-      <c r="AT32" s="249"/>
-      <c r="AU32" s="249"/>
-      <c r="AV32" s="253"/>
-      <c r="AW32" s="254"/>
-      <c r="AX32" s="254"/>
-      <c r="AY32" s="254"/>
-      <c r="AZ32" s="254"/>
-      <c r="BA32" s="255"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="248"/>
+      <c r="O32" s="248"/>
+      <c r="P32" s="248"/>
+      <c r="Q32" s="248"/>
+      <c r="R32" s="248"/>
+      <c r="S32" s="248"/>
+      <c r="T32" s="248"/>
+      <c r="U32" s="248"/>
+      <c r="V32" s="248"/>
+      <c r="W32" s="248"/>
+      <c r="X32" s="248"/>
+      <c r="Y32" s="248"/>
+      <c r="Z32" s="248"/>
+      <c r="AA32" s="248"/>
+      <c r="AB32" s="248"/>
+      <c r="AC32" s="248"/>
+      <c r="AD32" s="248"/>
+      <c r="AE32" s="248"/>
+      <c r="AF32" s="248"/>
+      <c r="AG32" s="248"/>
+      <c r="AH32" s="248"/>
+      <c r="AI32" s="248"/>
+      <c r="AJ32" s="248"/>
+      <c r="AK32" s="248"/>
+      <c r="AL32" s="248"/>
+      <c r="AM32" s="248"/>
+      <c r="AN32" s="248"/>
+      <c r="AO32" s="248"/>
+      <c r="AP32" s="248"/>
+      <c r="AQ32" s="248"/>
+      <c r="AR32" s="248"/>
+      <c r="AS32" s="248"/>
+      <c r="AT32" s="248"/>
+      <c r="AU32" s="248"/>
+      <c r="AV32" s="252"/>
+      <c r="AW32" s="253"/>
+      <c r="AX32" s="253"/>
+      <c r="AY32" s="253"/>
+      <c r="AZ32" s="253"/>
+      <c r="BA32" s="254"/>
       <c r="BB32" s="226"/>
       <c r="BC32" s="227"/>
       <c r="BD32" s="227"/>
@@ -50548,7 +50463,7 @@
       <c r="BR32" s="241"/>
     </row>
     <row r="33" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A33" s="256"/>
+      <c r="A33" s="255"/>
       <c r="B33" s="227"/>
       <c r="C33" s="227"/>
       <c r="D33" s="228"/>
@@ -50559,48 +50474,48 @@
       <c r="I33" s="233"/>
       <c r="J33" s="233"/>
       <c r="K33" s="233"/>
-      <c r="L33" s="249"/>
-      <c r="M33" s="249"/>
-      <c r="N33" s="249"/>
-      <c r="O33" s="249"/>
-      <c r="P33" s="249"/>
-      <c r="Q33" s="249"/>
-      <c r="R33" s="249"/>
-      <c r="S33" s="249"/>
-      <c r="T33" s="249"/>
-      <c r="U33" s="249"/>
-      <c r="V33" s="249"/>
-      <c r="W33" s="249"/>
-      <c r="X33" s="249"/>
-      <c r="Y33" s="249"/>
-      <c r="Z33" s="249"/>
-      <c r="AA33" s="249"/>
-      <c r="AB33" s="249"/>
-      <c r="AC33" s="249"/>
-      <c r="AD33" s="249"/>
-      <c r="AE33" s="249"/>
-      <c r="AF33" s="249"/>
-      <c r="AG33" s="249"/>
-      <c r="AH33" s="249"/>
-      <c r="AI33" s="249"/>
-      <c r="AJ33" s="249"/>
-      <c r="AK33" s="249"/>
-      <c r="AL33" s="249"/>
-      <c r="AM33" s="249"/>
-      <c r="AN33" s="249"/>
-      <c r="AO33" s="249"/>
-      <c r="AP33" s="249"/>
-      <c r="AQ33" s="249"/>
-      <c r="AR33" s="249"/>
-      <c r="AS33" s="249"/>
-      <c r="AT33" s="249"/>
-      <c r="AU33" s="249"/>
-      <c r="AV33" s="253"/>
-      <c r="AW33" s="254"/>
-      <c r="AX33" s="254"/>
-      <c r="AY33" s="254"/>
-      <c r="AZ33" s="254"/>
-      <c r="BA33" s="255"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="248"/>
+      <c r="N33" s="248"/>
+      <c r="O33" s="248"/>
+      <c r="P33" s="248"/>
+      <c r="Q33" s="248"/>
+      <c r="R33" s="248"/>
+      <c r="S33" s="248"/>
+      <c r="T33" s="248"/>
+      <c r="U33" s="248"/>
+      <c r="V33" s="248"/>
+      <c r="W33" s="248"/>
+      <c r="X33" s="248"/>
+      <c r="Y33" s="248"/>
+      <c r="Z33" s="248"/>
+      <c r="AA33" s="248"/>
+      <c r="AB33" s="248"/>
+      <c r="AC33" s="248"/>
+      <c r="AD33" s="248"/>
+      <c r="AE33" s="248"/>
+      <c r="AF33" s="248"/>
+      <c r="AG33" s="248"/>
+      <c r="AH33" s="248"/>
+      <c r="AI33" s="248"/>
+      <c r="AJ33" s="248"/>
+      <c r="AK33" s="248"/>
+      <c r="AL33" s="248"/>
+      <c r="AM33" s="248"/>
+      <c r="AN33" s="248"/>
+      <c r="AO33" s="248"/>
+      <c r="AP33" s="248"/>
+      <c r="AQ33" s="248"/>
+      <c r="AR33" s="248"/>
+      <c r="AS33" s="248"/>
+      <c r="AT33" s="248"/>
+      <c r="AU33" s="248"/>
+      <c r="AV33" s="252"/>
+      <c r="AW33" s="253"/>
+      <c r="AX33" s="253"/>
+      <c r="AY33" s="253"/>
+      <c r="AZ33" s="253"/>
+      <c r="BA33" s="254"/>
       <c r="BB33" s="226"/>
       <c r="BC33" s="227"/>
       <c r="BD33" s="227"/>
@@ -50631,48 +50546,48 @@
       <c r="I34" s="233"/>
       <c r="J34" s="233"/>
       <c r="K34" s="233"/>
-      <c r="L34" s="249"/>
-      <c r="M34" s="249"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="249"/>
-      <c r="P34" s="249"/>
-      <c r="Q34" s="249"/>
-      <c r="R34" s="249"/>
-      <c r="S34" s="249"/>
-      <c r="T34" s="249"/>
-      <c r="U34" s="249"/>
-      <c r="V34" s="249"/>
-      <c r="W34" s="249"/>
-      <c r="X34" s="249"/>
-      <c r="Y34" s="249"/>
-      <c r="Z34" s="249"/>
-      <c r="AA34" s="249"/>
-      <c r="AB34" s="249"/>
-      <c r="AC34" s="249"/>
-      <c r="AD34" s="249"/>
-      <c r="AE34" s="249"/>
-      <c r="AF34" s="249"/>
-      <c r="AG34" s="249"/>
-      <c r="AH34" s="249"/>
-      <c r="AI34" s="249"/>
-      <c r="AJ34" s="249"/>
-      <c r="AK34" s="249"/>
-      <c r="AL34" s="249"/>
-      <c r="AM34" s="249"/>
-      <c r="AN34" s="249"/>
-      <c r="AO34" s="249"/>
-      <c r="AP34" s="249"/>
-      <c r="AQ34" s="249"/>
-      <c r="AR34" s="249"/>
-      <c r="AS34" s="249"/>
-      <c r="AT34" s="249"/>
-      <c r="AU34" s="249"/>
-      <c r="AV34" s="253"/>
-      <c r="AW34" s="254"/>
-      <c r="AX34" s="254"/>
-      <c r="AY34" s="254"/>
-      <c r="AZ34" s="254"/>
-      <c r="BA34" s="255"/>
+      <c r="L34" s="248"/>
+      <c r="M34" s="248"/>
+      <c r="N34" s="248"/>
+      <c r="O34" s="248"/>
+      <c r="P34" s="248"/>
+      <c r="Q34" s="248"/>
+      <c r="R34" s="248"/>
+      <c r="S34" s="248"/>
+      <c r="T34" s="248"/>
+      <c r="U34" s="248"/>
+      <c r="V34" s="248"/>
+      <c r="W34" s="248"/>
+      <c r="X34" s="248"/>
+      <c r="Y34" s="248"/>
+      <c r="Z34" s="248"/>
+      <c r="AA34" s="248"/>
+      <c r="AB34" s="248"/>
+      <c r="AC34" s="248"/>
+      <c r="AD34" s="248"/>
+      <c r="AE34" s="248"/>
+      <c r="AF34" s="248"/>
+      <c r="AG34" s="248"/>
+      <c r="AH34" s="248"/>
+      <c r="AI34" s="248"/>
+      <c r="AJ34" s="248"/>
+      <c r="AK34" s="248"/>
+      <c r="AL34" s="248"/>
+      <c r="AM34" s="248"/>
+      <c r="AN34" s="248"/>
+      <c r="AO34" s="248"/>
+      <c r="AP34" s="248"/>
+      <c r="AQ34" s="248"/>
+      <c r="AR34" s="248"/>
+      <c r="AS34" s="248"/>
+      <c r="AT34" s="248"/>
+      <c r="AU34" s="248"/>
+      <c r="AV34" s="252"/>
+      <c r="AW34" s="253"/>
+      <c r="AX34" s="253"/>
+      <c r="AY34" s="253"/>
+      <c r="AZ34" s="253"/>
+      <c r="BA34" s="254"/>
       <c r="BB34" s="226"/>
       <c r="BC34" s="227"/>
       <c r="BD34" s="227"/>
@@ -50703,48 +50618,48 @@
       <c r="I35" s="233"/>
       <c r="J35" s="233"/>
       <c r="K35" s="233"/>
-      <c r="L35" s="250"/>
-      <c r="M35" s="251"/>
-      <c r="N35" s="251"/>
-      <c r="O35" s="251"/>
-      <c r="P35" s="251"/>
-      <c r="Q35" s="251"/>
-      <c r="R35" s="251"/>
-      <c r="S35" s="251"/>
-      <c r="T35" s="251"/>
-      <c r="U35" s="251"/>
-      <c r="V35" s="251"/>
-      <c r="W35" s="251"/>
-      <c r="X35" s="251"/>
-      <c r="Y35" s="251"/>
-      <c r="Z35" s="251"/>
-      <c r="AA35" s="251"/>
-      <c r="AB35" s="251"/>
-      <c r="AC35" s="251"/>
-      <c r="AD35" s="251"/>
-      <c r="AE35" s="251"/>
-      <c r="AF35" s="251"/>
-      <c r="AG35" s="251"/>
-      <c r="AH35" s="251"/>
-      <c r="AI35" s="251"/>
-      <c r="AJ35" s="251"/>
-      <c r="AK35" s="251"/>
-      <c r="AL35" s="251"/>
-      <c r="AM35" s="251"/>
-      <c r="AN35" s="251"/>
-      <c r="AO35" s="251"/>
-      <c r="AP35" s="251"/>
-      <c r="AQ35" s="251"/>
-      <c r="AR35" s="251"/>
-      <c r="AS35" s="251"/>
-      <c r="AT35" s="251"/>
-      <c r="AU35" s="252"/>
-      <c r="AV35" s="253"/>
-      <c r="AW35" s="254"/>
-      <c r="AX35" s="254"/>
-      <c r="AY35" s="254"/>
-      <c r="AZ35" s="254"/>
-      <c r="BA35" s="255"/>
+      <c r="L35" s="249"/>
+      <c r="M35" s="250"/>
+      <c r="N35" s="250"/>
+      <c r="O35" s="250"/>
+      <c r="P35" s="250"/>
+      <c r="Q35" s="250"/>
+      <c r="R35" s="250"/>
+      <c r="S35" s="250"/>
+      <c r="T35" s="250"/>
+      <c r="U35" s="250"/>
+      <c r="V35" s="250"/>
+      <c r="W35" s="250"/>
+      <c r="X35" s="250"/>
+      <c r="Y35" s="250"/>
+      <c r="Z35" s="250"/>
+      <c r="AA35" s="250"/>
+      <c r="AB35" s="250"/>
+      <c r="AC35" s="250"/>
+      <c r="AD35" s="250"/>
+      <c r="AE35" s="250"/>
+      <c r="AF35" s="250"/>
+      <c r="AG35" s="250"/>
+      <c r="AH35" s="250"/>
+      <c r="AI35" s="250"/>
+      <c r="AJ35" s="250"/>
+      <c r="AK35" s="250"/>
+      <c r="AL35" s="250"/>
+      <c r="AM35" s="250"/>
+      <c r="AN35" s="250"/>
+      <c r="AO35" s="250"/>
+      <c r="AP35" s="250"/>
+      <c r="AQ35" s="250"/>
+      <c r="AR35" s="250"/>
+      <c r="AS35" s="250"/>
+      <c r="AT35" s="250"/>
+      <c r="AU35" s="251"/>
+      <c r="AV35" s="252"/>
+      <c r="AW35" s="253"/>
+      <c r="AX35" s="253"/>
+      <c r="AY35" s="253"/>
+      <c r="AZ35" s="253"/>
+      <c r="BA35" s="254"/>
       <c r="BB35" s="226"/>
       <c r="BC35" s="227"/>
       <c r="BD35" s="227"/>
@@ -50775,48 +50690,48 @@
       <c r="I36" s="233"/>
       <c r="J36" s="233"/>
       <c r="K36" s="233"/>
-      <c r="L36" s="250"/>
-      <c r="M36" s="251"/>
-      <c r="N36" s="251"/>
-      <c r="O36" s="251"/>
-      <c r="P36" s="251"/>
-      <c r="Q36" s="251"/>
-      <c r="R36" s="251"/>
-      <c r="S36" s="251"/>
-      <c r="T36" s="251"/>
-      <c r="U36" s="251"/>
-      <c r="V36" s="251"/>
-      <c r="W36" s="251"/>
-      <c r="X36" s="251"/>
-      <c r="Y36" s="251"/>
-      <c r="Z36" s="251"/>
-      <c r="AA36" s="251"/>
-      <c r="AB36" s="251"/>
-      <c r="AC36" s="251"/>
-      <c r="AD36" s="251"/>
-      <c r="AE36" s="251"/>
-      <c r="AF36" s="251"/>
-      <c r="AG36" s="251"/>
-      <c r="AH36" s="251"/>
-      <c r="AI36" s="251"/>
-      <c r="AJ36" s="251"/>
-      <c r="AK36" s="251"/>
-      <c r="AL36" s="251"/>
-      <c r="AM36" s="251"/>
-      <c r="AN36" s="251"/>
-      <c r="AO36" s="251"/>
-      <c r="AP36" s="251"/>
-      <c r="AQ36" s="251"/>
-      <c r="AR36" s="251"/>
-      <c r="AS36" s="251"/>
-      <c r="AT36" s="251"/>
-      <c r="AU36" s="252"/>
-      <c r="AV36" s="253"/>
-      <c r="AW36" s="254"/>
-      <c r="AX36" s="254"/>
-      <c r="AY36" s="254"/>
-      <c r="AZ36" s="254"/>
-      <c r="BA36" s="255"/>
+      <c r="L36" s="249"/>
+      <c r="M36" s="250"/>
+      <c r="N36" s="250"/>
+      <c r="O36" s="250"/>
+      <c r="P36" s="250"/>
+      <c r="Q36" s="250"/>
+      <c r="R36" s="250"/>
+      <c r="S36" s="250"/>
+      <c r="T36" s="250"/>
+      <c r="U36" s="250"/>
+      <c r="V36" s="250"/>
+      <c r="W36" s="250"/>
+      <c r="X36" s="250"/>
+      <c r="Y36" s="250"/>
+      <c r="Z36" s="250"/>
+      <c r="AA36" s="250"/>
+      <c r="AB36" s="250"/>
+      <c r="AC36" s="250"/>
+      <c r="AD36" s="250"/>
+      <c r="AE36" s="250"/>
+      <c r="AF36" s="250"/>
+      <c r="AG36" s="250"/>
+      <c r="AH36" s="250"/>
+      <c r="AI36" s="250"/>
+      <c r="AJ36" s="250"/>
+      <c r="AK36" s="250"/>
+      <c r="AL36" s="250"/>
+      <c r="AM36" s="250"/>
+      <c r="AN36" s="250"/>
+      <c r="AO36" s="250"/>
+      <c r="AP36" s="250"/>
+      <c r="AQ36" s="250"/>
+      <c r="AR36" s="250"/>
+      <c r="AS36" s="250"/>
+      <c r="AT36" s="250"/>
+      <c r="AU36" s="251"/>
+      <c r="AV36" s="252"/>
+      <c r="AW36" s="253"/>
+      <c r="AX36" s="253"/>
+      <c r="AY36" s="253"/>
+      <c r="AZ36" s="253"/>
+      <c r="BA36" s="254"/>
       <c r="BB36" s="226"/>
       <c r="BC36" s="227"/>
       <c r="BD36" s="227"/>
@@ -50847,48 +50762,48 @@
       <c r="I37" s="233"/>
       <c r="J37" s="233"/>
       <c r="K37" s="233"/>
-      <c r="L37" s="250"/>
-      <c r="M37" s="251"/>
-      <c r="N37" s="251"/>
-      <c r="O37" s="251"/>
-      <c r="P37" s="251"/>
-      <c r="Q37" s="251"/>
-      <c r="R37" s="251"/>
-      <c r="S37" s="251"/>
-      <c r="T37" s="251"/>
-      <c r="U37" s="251"/>
-      <c r="V37" s="251"/>
-      <c r="W37" s="251"/>
-      <c r="X37" s="251"/>
-      <c r="Y37" s="251"/>
-      <c r="Z37" s="251"/>
-      <c r="AA37" s="251"/>
-      <c r="AB37" s="251"/>
-      <c r="AC37" s="251"/>
-      <c r="AD37" s="251"/>
-      <c r="AE37" s="251"/>
-      <c r="AF37" s="251"/>
-      <c r="AG37" s="251"/>
-      <c r="AH37" s="251"/>
-      <c r="AI37" s="251"/>
-      <c r="AJ37" s="251"/>
-      <c r="AK37" s="251"/>
-      <c r="AL37" s="251"/>
-      <c r="AM37" s="251"/>
-      <c r="AN37" s="251"/>
-      <c r="AO37" s="251"/>
-      <c r="AP37" s="251"/>
-      <c r="AQ37" s="251"/>
-      <c r="AR37" s="251"/>
-      <c r="AS37" s="251"/>
-      <c r="AT37" s="251"/>
-      <c r="AU37" s="252"/>
-      <c r="AV37" s="253"/>
-      <c r="AW37" s="254"/>
-      <c r="AX37" s="254"/>
-      <c r="AY37" s="254"/>
-      <c r="AZ37" s="254"/>
-      <c r="BA37" s="255"/>
+      <c r="L37" s="249"/>
+      <c r="M37" s="250"/>
+      <c r="N37" s="250"/>
+      <c r="O37" s="250"/>
+      <c r="P37" s="250"/>
+      <c r="Q37" s="250"/>
+      <c r="R37" s="250"/>
+      <c r="S37" s="250"/>
+      <c r="T37" s="250"/>
+      <c r="U37" s="250"/>
+      <c r="V37" s="250"/>
+      <c r="W37" s="250"/>
+      <c r="X37" s="250"/>
+      <c r="Y37" s="250"/>
+      <c r="Z37" s="250"/>
+      <c r="AA37" s="250"/>
+      <c r="AB37" s="250"/>
+      <c r="AC37" s="250"/>
+      <c r="AD37" s="250"/>
+      <c r="AE37" s="250"/>
+      <c r="AF37" s="250"/>
+      <c r="AG37" s="250"/>
+      <c r="AH37" s="250"/>
+      <c r="AI37" s="250"/>
+      <c r="AJ37" s="250"/>
+      <c r="AK37" s="250"/>
+      <c r="AL37" s="250"/>
+      <c r="AM37" s="250"/>
+      <c r="AN37" s="250"/>
+      <c r="AO37" s="250"/>
+      <c r="AP37" s="250"/>
+      <c r="AQ37" s="250"/>
+      <c r="AR37" s="250"/>
+      <c r="AS37" s="250"/>
+      <c r="AT37" s="250"/>
+      <c r="AU37" s="251"/>
+      <c r="AV37" s="252"/>
+      <c r="AW37" s="253"/>
+      <c r="AX37" s="253"/>
+      <c r="AY37" s="253"/>
+      <c r="AZ37" s="253"/>
+      <c r="BA37" s="254"/>
       <c r="BB37" s="226"/>
       <c r="BC37" s="227"/>
       <c r="BD37" s="227"/>
@@ -50919,48 +50834,48 @@
       <c r="I38" s="233"/>
       <c r="J38" s="233"/>
       <c r="K38" s="233"/>
-      <c r="L38" s="250"/>
-      <c r="M38" s="251"/>
-      <c r="N38" s="251"/>
-      <c r="O38" s="251"/>
-      <c r="P38" s="251"/>
-      <c r="Q38" s="251"/>
-      <c r="R38" s="251"/>
-      <c r="S38" s="251"/>
-      <c r="T38" s="251"/>
-      <c r="U38" s="251"/>
-      <c r="V38" s="251"/>
-      <c r="W38" s="251"/>
-      <c r="X38" s="251"/>
-      <c r="Y38" s="251"/>
-      <c r="Z38" s="251"/>
-      <c r="AA38" s="251"/>
-      <c r="AB38" s="251"/>
-      <c r="AC38" s="251"/>
-      <c r="AD38" s="251"/>
-      <c r="AE38" s="251"/>
-      <c r="AF38" s="251"/>
-      <c r="AG38" s="251"/>
-      <c r="AH38" s="251"/>
-      <c r="AI38" s="251"/>
-      <c r="AJ38" s="251"/>
-      <c r="AK38" s="251"/>
-      <c r="AL38" s="251"/>
-      <c r="AM38" s="251"/>
-      <c r="AN38" s="251"/>
-      <c r="AO38" s="251"/>
-      <c r="AP38" s="251"/>
-      <c r="AQ38" s="251"/>
-      <c r="AR38" s="251"/>
-      <c r="AS38" s="251"/>
-      <c r="AT38" s="251"/>
-      <c r="AU38" s="252"/>
-      <c r="AV38" s="253"/>
-      <c r="AW38" s="254"/>
-      <c r="AX38" s="254"/>
-      <c r="AY38" s="254"/>
-      <c r="AZ38" s="254"/>
-      <c r="BA38" s="255"/>
+      <c r="L38" s="249"/>
+      <c r="M38" s="250"/>
+      <c r="N38" s="250"/>
+      <c r="O38" s="250"/>
+      <c r="P38" s="250"/>
+      <c r="Q38" s="250"/>
+      <c r="R38" s="250"/>
+      <c r="S38" s="250"/>
+      <c r="T38" s="250"/>
+      <c r="U38" s="250"/>
+      <c r="V38" s="250"/>
+      <c r="W38" s="250"/>
+      <c r="X38" s="250"/>
+      <c r="Y38" s="250"/>
+      <c r="Z38" s="250"/>
+      <c r="AA38" s="250"/>
+      <c r="AB38" s="250"/>
+      <c r="AC38" s="250"/>
+      <c r="AD38" s="250"/>
+      <c r="AE38" s="250"/>
+      <c r="AF38" s="250"/>
+      <c r="AG38" s="250"/>
+      <c r="AH38" s="250"/>
+      <c r="AI38" s="250"/>
+      <c r="AJ38" s="250"/>
+      <c r="AK38" s="250"/>
+      <c r="AL38" s="250"/>
+      <c r="AM38" s="250"/>
+      <c r="AN38" s="250"/>
+      <c r="AO38" s="250"/>
+      <c r="AP38" s="250"/>
+      <c r="AQ38" s="250"/>
+      <c r="AR38" s="250"/>
+      <c r="AS38" s="250"/>
+      <c r="AT38" s="250"/>
+      <c r="AU38" s="251"/>
+      <c r="AV38" s="252"/>
+      <c r="AW38" s="253"/>
+      <c r="AX38" s="253"/>
+      <c r="AY38" s="253"/>
+      <c r="AZ38" s="253"/>
+      <c r="BA38" s="254"/>
       <c r="BB38" s="226"/>
       <c r="BC38" s="227"/>
       <c r="BD38" s="227"/>
@@ -50991,48 +50906,48 @@
       <c r="I39" s="233"/>
       <c r="J39" s="233"/>
       <c r="K39" s="233"/>
-      <c r="L39" s="250"/>
-      <c r="M39" s="251"/>
-      <c r="N39" s="251"/>
-      <c r="O39" s="251"/>
-      <c r="P39" s="251"/>
-      <c r="Q39" s="251"/>
-      <c r="R39" s="251"/>
-      <c r="S39" s="251"/>
-      <c r="T39" s="251"/>
-      <c r="U39" s="251"/>
-      <c r="V39" s="251"/>
-      <c r="W39" s="251"/>
-      <c r="X39" s="251"/>
-      <c r="Y39" s="251"/>
-      <c r="Z39" s="251"/>
-      <c r="AA39" s="251"/>
-      <c r="AB39" s="251"/>
-      <c r="AC39" s="251"/>
-      <c r="AD39" s="251"/>
-      <c r="AE39" s="251"/>
-      <c r="AF39" s="251"/>
-      <c r="AG39" s="251"/>
-      <c r="AH39" s="251"/>
-      <c r="AI39" s="251"/>
-      <c r="AJ39" s="251"/>
-      <c r="AK39" s="251"/>
-      <c r="AL39" s="251"/>
-      <c r="AM39" s="251"/>
-      <c r="AN39" s="251"/>
-      <c r="AO39" s="251"/>
-      <c r="AP39" s="251"/>
-      <c r="AQ39" s="251"/>
-      <c r="AR39" s="251"/>
-      <c r="AS39" s="251"/>
-      <c r="AT39" s="251"/>
-      <c r="AU39" s="252"/>
-      <c r="AV39" s="253"/>
-      <c r="AW39" s="254"/>
-      <c r="AX39" s="254"/>
-      <c r="AY39" s="254"/>
-      <c r="AZ39" s="254"/>
-      <c r="BA39" s="255"/>
+      <c r="L39" s="249"/>
+      <c r="M39" s="250"/>
+      <c r="N39" s="250"/>
+      <c r="O39" s="250"/>
+      <c r="P39" s="250"/>
+      <c r="Q39" s="250"/>
+      <c r="R39" s="250"/>
+      <c r="S39" s="250"/>
+      <c r="T39" s="250"/>
+      <c r="U39" s="250"/>
+      <c r="V39" s="250"/>
+      <c r="W39" s="250"/>
+      <c r="X39" s="250"/>
+      <c r="Y39" s="250"/>
+      <c r="Z39" s="250"/>
+      <c r="AA39" s="250"/>
+      <c r="AB39" s="250"/>
+      <c r="AC39" s="250"/>
+      <c r="AD39" s="250"/>
+      <c r="AE39" s="250"/>
+      <c r="AF39" s="250"/>
+      <c r="AG39" s="250"/>
+      <c r="AH39" s="250"/>
+      <c r="AI39" s="250"/>
+      <c r="AJ39" s="250"/>
+      <c r="AK39" s="250"/>
+      <c r="AL39" s="250"/>
+      <c r="AM39" s="250"/>
+      <c r="AN39" s="250"/>
+      <c r="AO39" s="250"/>
+      <c r="AP39" s="250"/>
+      <c r="AQ39" s="250"/>
+      <c r="AR39" s="250"/>
+      <c r="AS39" s="250"/>
+      <c r="AT39" s="250"/>
+      <c r="AU39" s="251"/>
+      <c r="AV39" s="252"/>
+      <c r="AW39" s="253"/>
+      <c r="AX39" s="253"/>
+      <c r="AY39" s="253"/>
+      <c r="AZ39" s="253"/>
+      <c r="BA39" s="254"/>
       <c r="BB39" s="226"/>
       <c r="BC39" s="227"/>
       <c r="BD39" s="227"/>
@@ -51063,48 +50978,48 @@
       <c r="I40" s="233"/>
       <c r="J40" s="233"/>
       <c r="K40" s="233"/>
-      <c r="L40" s="250"/>
-      <c r="M40" s="251"/>
-      <c r="N40" s="251"/>
-      <c r="O40" s="251"/>
-      <c r="P40" s="251"/>
-      <c r="Q40" s="251"/>
-      <c r="R40" s="251"/>
-      <c r="S40" s="251"/>
-      <c r="T40" s="251"/>
-      <c r="U40" s="251"/>
-      <c r="V40" s="251"/>
-      <c r="W40" s="251"/>
-      <c r="X40" s="251"/>
-      <c r="Y40" s="251"/>
-      <c r="Z40" s="251"/>
-      <c r="AA40" s="251"/>
-      <c r="AB40" s="251"/>
-      <c r="AC40" s="251"/>
-      <c r="AD40" s="251"/>
-      <c r="AE40" s="251"/>
-      <c r="AF40" s="251"/>
-      <c r="AG40" s="251"/>
-      <c r="AH40" s="251"/>
-      <c r="AI40" s="251"/>
-      <c r="AJ40" s="251"/>
-      <c r="AK40" s="251"/>
-      <c r="AL40" s="251"/>
-      <c r="AM40" s="251"/>
-      <c r="AN40" s="251"/>
-      <c r="AO40" s="251"/>
-      <c r="AP40" s="251"/>
-      <c r="AQ40" s="251"/>
-      <c r="AR40" s="251"/>
-      <c r="AS40" s="251"/>
-      <c r="AT40" s="251"/>
-      <c r="AU40" s="252"/>
-      <c r="AV40" s="253"/>
-      <c r="AW40" s="254"/>
-      <c r="AX40" s="254"/>
-      <c r="AY40" s="254"/>
-      <c r="AZ40" s="254"/>
-      <c r="BA40" s="255"/>
+      <c r="L40" s="249"/>
+      <c r="M40" s="250"/>
+      <c r="N40" s="250"/>
+      <c r="O40" s="250"/>
+      <c r="P40" s="250"/>
+      <c r="Q40" s="250"/>
+      <c r="R40" s="250"/>
+      <c r="S40" s="250"/>
+      <c r="T40" s="250"/>
+      <c r="U40" s="250"/>
+      <c r="V40" s="250"/>
+      <c r="W40" s="250"/>
+      <c r="X40" s="250"/>
+      <c r="Y40" s="250"/>
+      <c r="Z40" s="250"/>
+      <c r="AA40" s="250"/>
+      <c r="AB40" s="250"/>
+      <c r="AC40" s="250"/>
+      <c r="AD40" s="250"/>
+      <c r="AE40" s="250"/>
+      <c r="AF40" s="250"/>
+      <c r="AG40" s="250"/>
+      <c r="AH40" s="250"/>
+      <c r="AI40" s="250"/>
+      <c r="AJ40" s="250"/>
+      <c r="AK40" s="250"/>
+      <c r="AL40" s="250"/>
+      <c r="AM40" s="250"/>
+      <c r="AN40" s="250"/>
+      <c r="AO40" s="250"/>
+      <c r="AP40" s="250"/>
+      <c r="AQ40" s="250"/>
+      <c r="AR40" s="250"/>
+      <c r="AS40" s="250"/>
+      <c r="AT40" s="250"/>
+      <c r="AU40" s="251"/>
+      <c r="AV40" s="252"/>
+      <c r="AW40" s="253"/>
+      <c r="AX40" s="253"/>
+      <c r="AY40" s="253"/>
+      <c r="AZ40" s="253"/>
+      <c r="BA40" s="254"/>
       <c r="BB40" s="226"/>
       <c r="BC40" s="227"/>
       <c r="BD40" s="227"/>
@@ -51124,1518 +51039,1518 @@
       <c r="BR40" s="241"/>
     </row>
     <row r="41" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A41" s="257" t="s">
-        <v>90</v>
+      <c r="A41" s="256" t="s">
+        <v>86</v>
       </c>
-      <c r="B41" s="258"/>
-      <c r="C41" s="258"/>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
-      <c r="F41" s="258"/>
-      <c r="G41" s="258"/>
-      <c r="H41" s="258"/>
-      <c r="I41" s="258"/>
-      <c r="J41" s="258"/>
-      <c r="K41" s="258"/>
-      <c r="L41" s="258"/>
-      <c r="M41" s="258"/>
-      <c r="N41" s="258"/>
-      <c r="O41" s="258"/>
-      <c r="P41" s="258"/>
-      <c r="Q41" s="258"/>
-      <c r="R41" s="258"/>
-      <c r="S41" s="258"/>
-      <c r="T41" s="258"/>
-      <c r="U41" s="258"/>
-      <c r="V41" s="258"/>
-      <c r="W41" s="258"/>
-      <c r="X41" s="258"/>
-      <c r="Y41" s="258"/>
-      <c r="Z41" s="258"/>
-      <c r="AA41" s="258"/>
-      <c r="AB41" s="258"/>
-      <c r="AC41" s="258"/>
-      <c r="AD41" s="258"/>
-      <c r="AE41" s="258"/>
-      <c r="AF41" s="258"/>
-      <c r="AG41" s="258"/>
-      <c r="AH41" s="258"/>
-      <c r="AI41" s="258"/>
-      <c r="AJ41" s="258"/>
-      <c r="AK41" s="258"/>
-      <c r="AL41" s="258"/>
-      <c r="AM41" s="258"/>
-      <c r="AN41" s="258"/>
-      <c r="AO41" s="258"/>
-      <c r="AP41" s="258"/>
-      <c r="AQ41" s="258"/>
-      <c r="AR41" s="258"/>
-      <c r="AS41" s="258"/>
-      <c r="AT41" s="258"/>
-      <c r="AU41" s="258"/>
-      <c r="AV41" s="258"/>
-      <c r="AW41" s="258"/>
-      <c r="AX41" s="258"/>
-      <c r="AY41" s="258"/>
-      <c r="AZ41" s="258"/>
-      <c r="BA41" s="258"/>
-      <c r="BB41" s="258"/>
-      <c r="BC41" s="258"/>
-      <c r="BD41" s="258"/>
-      <c r="BE41" s="258"/>
-      <c r="BF41" s="258"/>
-      <c r="BG41" s="258"/>
-      <c r="BH41" s="258"/>
-      <c r="BI41" s="258"/>
-      <c r="BJ41" s="258"/>
-      <c r="BK41" s="258"/>
-      <c r="BL41" s="258"/>
-      <c r="BM41" s="258"/>
-      <c r="BN41" s="258"/>
-      <c r="BO41" s="258"/>
-      <c r="BP41" s="258"/>
-      <c r="BQ41" s="258"/>
-      <c r="BR41" s="259"/>
+      <c r="B41" s="257"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="257"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="257"/>
+      <c r="I41" s="257"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="257"/>
+      <c r="L41" s="257"/>
+      <c r="M41" s="257"/>
+      <c r="N41" s="257"/>
+      <c r="O41" s="257"/>
+      <c r="P41" s="257"/>
+      <c r="Q41" s="257"/>
+      <c r="R41" s="257"/>
+      <c r="S41" s="257"/>
+      <c r="T41" s="257"/>
+      <c r="U41" s="257"/>
+      <c r="V41" s="257"/>
+      <c r="W41" s="257"/>
+      <c r="X41" s="257"/>
+      <c r="Y41" s="257"/>
+      <c r="Z41" s="257"/>
+      <c r="AA41" s="257"/>
+      <c r="AB41" s="257"/>
+      <c r="AC41" s="257"/>
+      <c r="AD41" s="257"/>
+      <c r="AE41" s="257"/>
+      <c r="AF41" s="257"/>
+      <c r="AG41" s="257"/>
+      <c r="AH41" s="257"/>
+      <c r="AI41" s="257"/>
+      <c r="AJ41" s="257"/>
+      <c r="AK41" s="257"/>
+      <c r="AL41" s="257"/>
+      <c r="AM41" s="257"/>
+      <c r="AN41" s="257"/>
+      <c r="AO41" s="257"/>
+      <c r="AP41" s="257"/>
+      <c r="AQ41" s="257"/>
+      <c r="AR41" s="257"/>
+      <c r="AS41" s="257"/>
+      <c r="AT41" s="257"/>
+      <c r="AU41" s="257"/>
+      <c r="AV41" s="257"/>
+      <c r="AW41" s="257"/>
+      <c r="AX41" s="257"/>
+      <c r="AY41" s="257"/>
+      <c r="AZ41" s="257"/>
+      <c r="BA41" s="257"/>
+      <c r="BB41" s="257"/>
+      <c r="BC41" s="257"/>
+      <c r="BD41" s="257"/>
+      <c r="BE41" s="257"/>
+      <c r="BF41" s="257"/>
+      <c r="BG41" s="257"/>
+      <c r="BH41" s="257"/>
+      <c r="BI41" s="257"/>
+      <c r="BJ41" s="257"/>
+      <c r="BK41" s="257"/>
+      <c r="BL41" s="257"/>
+      <c r="BM41" s="257"/>
+      <c r="BN41" s="257"/>
+      <c r="BO41" s="257"/>
+      <c r="BP41" s="257"/>
+      <c r="BQ41" s="257"/>
+      <c r="BR41" s="258"/>
     </row>
     <row r="42" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A42" s="260"/>
-      <c r="B42" s="261"/>
-      <c r="C42" s="261"/>
-      <c r="D42" s="261"/>
-      <c r="E42" s="261"/>
-      <c r="F42" s="261"/>
-      <c r="G42" s="261"/>
-      <c r="H42" s="261"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="261"/>
-      <c r="K42" s="261"/>
-      <c r="L42" s="261"/>
-      <c r="M42" s="261"/>
-      <c r="N42" s="261"/>
-      <c r="O42" s="261"/>
-      <c r="P42" s="261"/>
-      <c r="Q42" s="261"/>
-      <c r="R42" s="261"/>
-      <c r="S42" s="261"/>
-      <c r="T42" s="261"/>
-      <c r="U42" s="261"/>
-      <c r="V42" s="261"/>
-      <c r="W42" s="261"/>
-      <c r="X42" s="261"/>
-      <c r="Y42" s="261"/>
-      <c r="Z42" s="261"/>
-      <c r="AA42" s="261"/>
-      <c r="AB42" s="261"/>
-      <c r="AC42" s="261"/>
-      <c r="AD42" s="261"/>
-      <c r="AE42" s="261"/>
-      <c r="AF42" s="261"/>
-      <c r="AG42" s="261"/>
-      <c r="AH42" s="261"/>
-      <c r="AI42" s="261"/>
-      <c r="AJ42" s="261"/>
-      <c r="AK42" s="261"/>
-      <c r="AL42" s="261"/>
-      <c r="AM42" s="261"/>
-      <c r="AN42" s="261"/>
-      <c r="AO42" s="261"/>
-      <c r="AP42" s="261"/>
-      <c r="AQ42" s="261"/>
-      <c r="AR42" s="261"/>
-      <c r="AS42" s="261"/>
-      <c r="AT42" s="261"/>
-      <c r="AU42" s="261"/>
-      <c r="AV42" s="261"/>
-      <c r="AW42" s="261"/>
-      <c r="AX42" s="261"/>
-      <c r="AY42" s="261"/>
-      <c r="AZ42" s="261"/>
-      <c r="BA42" s="261"/>
-      <c r="BB42" s="261"/>
-      <c r="BC42" s="261"/>
-      <c r="BD42" s="261"/>
-      <c r="BE42" s="261"/>
-      <c r="BF42" s="261"/>
-      <c r="BG42" s="261"/>
-      <c r="BH42" s="261"/>
-      <c r="BI42" s="261"/>
-      <c r="BJ42" s="261"/>
-      <c r="BK42" s="261"/>
-      <c r="BL42" s="261"/>
-      <c r="BM42" s="261"/>
-      <c r="BN42" s="261"/>
-      <c r="BO42" s="261"/>
-      <c r="BP42" s="261"/>
-      <c r="BQ42" s="261"/>
-      <c r="BR42" s="262"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="260"/>
+      <c r="L42" s="260"/>
+      <c r="M42" s="260"/>
+      <c r="N42" s="260"/>
+      <c r="O42" s="260"/>
+      <c r="P42" s="260"/>
+      <c r="Q42" s="260"/>
+      <c r="R42" s="260"/>
+      <c r="S42" s="260"/>
+      <c r="T42" s="260"/>
+      <c r="U42" s="260"/>
+      <c r="V42" s="260"/>
+      <c r="W42" s="260"/>
+      <c r="X42" s="260"/>
+      <c r="Y42" s="260"/>
+      <c r="Z42" s="260"/>
+      <c r="AA42" s="260"/>
+      <c r="AB42" s="260"/>
+      <c r="AC42" s="260"/>
+      <c r="AD42" s="260"/>
+      <c r="AE42" s="260"/>
+      <c r="AF42" s="260"/>
+      <c r="AG42" s="260"/>
+      <c r="AH42" s="260"/>
+      <c r="AI42" s="260"/>
+      <c r="AJ42" s="260"/>
+      <c r="AK42" s="260"/>
+      <c r="AL42" s="260"/>
+      <c r="AM42" s="260"/>
+      <c r="AN42" s="260"/>
+      <c r="AO42" s="260"/>
+      <c r="AP42" s="260"/>
+      <c r="AQ42" s="260"/>
+      <c r="AR42" s="260"/>
+      <c r="AS42" s="260"/>
+      <c r="AT42" s="260"/>
+      <c r="AU42" s="260"/>
+      <c r="AV42" s="260"/>
+      <c r="AW42" s="260"/>
+      <c r="AX42" s="260"/>
+      <c r="AY42" s="260"/>
+      <c r="AZ42" s="260"/>
+      <c r="BA42" s="260"/>
+      <c r="BB42" s="260"/>
+      <c r="BC42" s="260"/>
+      <c r="BD42" s="260"/>
+      <c r="BE42" s="260"/>
+      <c r="BF42" s="260"/>
+      <c r="BG42" s="260"/>
+      <c r="BH42" s="260"/>
+      <c r="BI42" s="260"/>
+      <c r="BJ42" s="260"/>
+      <c r="BK42" s="260"/>
+      <c r="BL42" s="260"/>
+      <c r="BM42" s="260"/>
+      <c r="BN42" s="260"/>
+      <c r="BO42" s="260"/>
+      <c r="BP42" s="260"/>
+      <c r="BQ42" s="260"/>
+      <c r="BR42" s="261"/>
     </row>
     <row r="43" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A43" s="260"/>
-      <c r="B43" s="261"/>
-      <c r="C43" s="261"/>
-      <c r="D43" s="261"/>
-      <c r="E43" s="261"/>
-      <c r="F43" s="261"/>
-      <c r="G43" s="261"/>
-      <c r="H43" s="261"/>
-      <c r="I43" s="261"/>
-      <c r="J43" s="261"/>
-      <c r="K43" s="261"/>
-      <c r="L43" s="261"/>
-      <c r="M43" s="261"/>
-      <c r="N43" s="261"/>
-      <c r="O43" s="261"/>
-      <c r="P43" s="261"/>
-      <c r="Q43" s="261"/>
-      <c r="R43" s="261"/>
-      <c r="S43" s="261"/>
-      <c r="T43" s="261"/>
-      <c r="U43" s="261"/>
-      <c r="V43" s="261"/>
-      <c r="W43" s="261"/>
-      <c r="X43" s="261"/>
-      <c r="Y43" s="261"/>
-      <c r="Z43" s="261"/>
-      <c r="AA43" s="261"/>
-      <c r="AB43" s="261"/>
-      <c r="AC43" s="261"/>
-      <c r="AD43" s="261"/>
-      <c r="AE43" s="261"/>
-      <c r="AF43" s="261"/>
-      <c r="AG43" s="261"/>
-      <c r="AH43" s="261"/>
-      <c r="AI43" s="261"/>
-      <c r="AJ43" s="261"/>
-      <c r="AK43" s="261"/>
-      <c r="AL43" s="261"/>
-      <c r="AM43" s="261"/>
-      <c r="AN43" s="261"/>
-      <c r="AO43" s="261"/>
-      <c r="AP43" s="261"/>
-      <c r="AQ43" s="261"/>
-      <c r="AR43" s="261"/>
-      <c r="AS43" s="261"/>
-      <c r="AT43" s="261"/>
-      <c r="AU43" s="261"/>
-      <c r="AV43" s="261"/>
-      <c r="AW43" s="261"/>
-      <c r="AX43" s="261"/>
-      <c r="AY43" s="261"/>
-      <c r="AZ43" s="261"/>
-      <c r="BA43" s="261"/>
-      <c r="BB43" s="261"/>
-      <c r="BC43" s="261"/>
-      <c r="BD43" s="261"/>
-      <c r="BE43" s="261"/>
-      <c r="BF43" s="261"/>
-      <c r="BG43" s="261"/>
-      <c r="BH43" s="261"/>
-      <c r="BI43" s="261"/>
-      <c r="BJ43" s="261"/>
-      <c r="BK43" s="261"/>
-      <c r="BL43" s="261"/>
-      <c r="BM43" s="261"/>
-      <c r="BN43" s="261"/>
-      <c r="BO43" s="261"/>
-      <c r="BP43" s="261"/>
-      <c r="BQ43" s="261"/>
-      <c r="BR43" s="262"/>
+      <c r="A43" s="259"/>
+      <c r="B43" s="260"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="260"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="260"/>
+      <c r="I43" s="260"/>
+      <c r="J43" s="260"/>
+      <c r="K43" s="260"/>
+      <c r="L43" s="260"/>
+      <c r="M43" s="260"/>
+      <c r="N43" s="260"/>
+      <c r="O43" s="260"/>
+      <c r="P43" s="260"/>
+      <c r="Q43" s="260"/>
+      <c r="R43" s="260"/>
+      <c r="S43" s="260"/>
+      <c r="T43" s="260"/>
+      <c r="U43" s="260"/>
+      <c r="V43" s="260"/>
+      <c r="W43" s="260"/>
+      <c r="X43" s="260"/>
+      <c r="Y43" s="260"/>
+      <c r="Z43" s="260"/>
+      <c r="AA43" s="260"/>
+      <c r="AB43" s="260"/>
+      <c r="AC43" s="260"/>
+      <c r="AD43" s="260"/>
+      <c r="AE43" s="260"/>
+      <c r="AF43" s="260"/>
+      <c r="AG43" s="260"/>
+      <c r="AH43" s="260"/>
+      <c r="AI43" s="260"/>
+      <c r="AJ43" s="260"/>
+      <c r="AK43" s="260"/>
+      <c r="AL43" s="260"/>
+      <c r="AM43" s="260"/>
+      <c r="AN43" s="260"/>
+      <c r="AO43" s="260"/>
+      <c r="AP43" s="260"/>
+      <c r="AQ43" s="260"/>
+      <c r="AR43" s="260"/>
+      <c r="AS43" s="260"/>
+      <c r="AT43" s="260"/>
+      <c r="AU43" s="260"/>
+      <c r="AV43" s="260"/>
+      <c r="AW43" s="260"/>
+      <c r="AX43" s="260"/>
+      <c r="AY43" s="260"/>
+      <c r="AZ43" s="260"/>
+      <c r="BA43" s="260"/>
+      <c r="BB43" s="260"/>
+      <c r="BC43" s="260"/>
+      <c r="BD43" s="260"/>
+      <c r="BE43" s="260"/>
+      <c r="BF43" s="260"/>
+      <c r="BG43" s="260"/>
+      <c r="BH43" s="260"/>
+      <c r="BI43" s="260"/>
+      <c r="BJ43" s="260"/>
+      <c r="BK43" s="260"/>
+      <c r="BL43" s="260"/>
+      <c r="BM43" s="260"/>
+      <c r="BN43" s="260"/>
+      <c r="BO43" s="260"/>
+      <c r="BP43" s="260"/>
+      <c r="BQ43" s="260"/>
+      <c r="BR43" s="261"/>
     </row>
     <row r="44" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A44" s="260"/>
-      <c r="B44" s="261"/>
-      <c r="C44" s="261"/>
-      <c r="D44" s="261"/>
-      <c r="E44" s="261"/>
-      <c r="F44" s="261"/>
-      <c r="G44" s="261"/>
-      <c r="H44" s="261"/>
-      <c r="I44" s="261"/>
-      <c r="J44" s="261"/>
-      <c r="K44" s="261"/>
-      <c r="L44" s="261"/>
-      <c r="M44" s="261"/>
-      <c r="N44" s="261"/>
-      <c r="O44" s="261"/>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="261"/>
-      <c r="R44" s="261"/>
-      <c r="S44" s="261"/>
-      <c r="T44" s="261"/>
-      <c r="U44" s="261"/>
-      <c r="V44" s="261"/>
-      <c r="W44" s="261"/>
-      <c r="X44" s="261"/>
-      <c r="Y44" s="261"/>
-      <c r="Z44" s="261"/>
-      <c r="AA44" s="261"/>
-      <c r="AB44" s="261"/>
-      <c r="AC44" s="261"/>
-      <c r="AD44" s="261"/>
-      <c r="AE44" s="261"/>
-      <c r="AF44" s="261"/>
-      <c r="AG44" s="261"/>
-      <c r="AH44" s="261"/>
-      <c r="AI44" s="261"/>
-      <c r="AJ44" s="261"/>
-      <c r="AK44" s="261"/>
-      <c r="AL44" s="261"/>
-      <c r="AM44" s="261"/>
-      <c r="AN44" s="261"/>
-      <c r="AO44" s="261"/>
-      <c r="AP44" s="261"/>
-      <c r="AQ44" s="261"/>
-      <c r="AR44" s="261"/>
-      <c r="AS44" s="261"/>
-      <c r="AT44" s="261"/>
-      <c r="AU44" s="261"/>
-      <c r="AV44" s="261"/>
-      <c r="AW44" s="261"/>
-      <c r="AX44" s="261"/>
-      <c r="AY44" s="261"/>
-      <c r="AZ44" s="261"/>
-      <c r="BA44" s="261"/>
-      <c r="BB44" s="261"/>
-      <c r="BC44" s="261"/>
-      <c r="BD44" s="261"/>
-      <c r="BE44" s="261"/>
-      <c r="BF44" s="261"/>
-      <c r="BG44" s="261"/>
-      <c r="BH44" s="261"/>
-      <c r="BI44" s="261"/>
-      <c r="BJ44" s="261"/>
-      <c r="BK44" s="261"/>
-      <c r="BL44" s="261"/>
-      <c r="BM44" s="261"/>
-      <c r="BN44" s="261"/>
-      <c r="BO44" s="261"/>
-      <c r="BP44" s="261"/>
-      <c r="BQ44" s="261"/>
-      <c r="BR44" s="262"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="260"/>
+      <c r="C44" s="260"/>
+      <c r="D44" s="260"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="260"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="260"/>
+      <c r="L44" s="260"/>
+      <c r="M44" s="260"/>
+      <c r="N44" s="260"/>
+      <c r="O44" s="260"/>
+      <c r="P44" s="260"/>
+      <c r="Q44" s="260"/>
+      <c r="R44" s="260"/>
+      <c r="S44" s="260"/>
+      <c r="T44" s="260"/>
+      <c r="U44" s="260"/>
+      <c r="V44" s="260"/>
+      <c r="W44" s="260"/>
+      <c r="X44" s="260"/>
+      <c r="Y44" s="260"/>
+      <c r="Z44" s="260"/>
+      <c r="AA44" s="260"/>
+      <c r="AB44" s="260"/>
+      <c r="AC44" s="260"/>
+      <c r="AD44" s="260"/>
+      <c r="AE44" s="260"/>
+      <c r="AF44" s="260"/>
+      <c r="AG44" s="260"/>
+      <c r="AH44" s="260"/>
+      <c r="AI44" s="260"/>
+      <c r="AJ44" s="260"/>
+      <c r="AK44" s="260"/>
+      <c r="AL44" s="260"/>
+      <c r="AM44" s="260"/>
+      <c r="AN44" s="260"/>
+      <c r="AO44" s="260"/>
+      <c r="AP44" s="260"/>
+      <c r="AQ44" s="260"/>
+      <c r="AR44" s="260"/>
+      <c r="AS44" s="260"/>
+      <c r="AT44" s="260"/>
+      <c r="AU44" s="260"/>
+      <c r="AV44" s="260"/>
+      <c r="AW44" s="260"/>
+      <c r="AX44" s="260"/>
+      <c r="AY44" s="260"/>
+      <c r="AZ44" s="260"/>
+      <c r="BA44" s="260"/>
+      <c r="BB44" s="260"/>
+      <c r="BC44" s="260"/>
+      <c r="BD44" s="260"/>
+      <c r="BE44" s="260"/>
+      <c r="BF44" s="260"/>
+      <c r="BG44" s="260"/>
+      <c r="BH44" s="260"/>
+      <c r="BI44" s="260"/>
+      <c r="BJ44" s="260"/>
+      <c r="BK44" s="260"/>
+      <c r="BL44" s="260"/>
+      <c r="BM44" s="260"/>
+      <c r="BN44" s="260"/>
+      <c r="BO44" s="260"/>
+      <c r="BP44" s="260"/>
+      <c r="BQ44" s="260"/>
+      <c r="BR44" s="261"/>
     </row>
     <row r="45" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A45" s="260"/>
-      <c r="B45" s="261"/>
-      <c r="C45" s="261"/>
-      <c r="D45" s="261"/>
-      <c r="E45" s="261"/>
-      <c r="F45" s="261"/>
-      <c r="G45" s="261"/>
-      <c r="H45" s="261"/>
-      <c r="I45" s="261"/>
-      <c r="J45" s="261"/>
-      <c r="K45" s="261"/>
-      <c r="L45" s="261"/>
-      <c r="M45" s="261"/>
-      <c r="N45" s="261"/>
-      <c r="O45" s="261"/>
-      <c r="P45" s="261"/>
-      <c r="Q45" s="261"/>
-      <c r="R45" s="261"/>
-      <c r="S45" s="261"/>
-      <c r="T45" s="261"/>
-      <c r="U45" s="261"/>
-      <c r="V45" s="261"/>
-      <c r="W45" s="261"/>
-      <c r="X45" s="261"/>
-      <c r="Y45" s="261"/>
-      <c r="Z45" s="261"/>
-      <c r="AA45" s="261"/>
-      <c r="AB45" s="261"/>
-      <c r="AC45" s="261"/>
-      <c r="AD45" s="261"/>
-      <c r="AE45" s="261"/>
-      <c r="AF45" s="261"/>
-      <c r="AG45" s="261"/>
-      <c r="AH45" s="261"/>
-      <c r="AI45" s="261"/>
-      <c r="AJ45" s="261"/>
-      <c r="AK45" s="261"/>
-      <c r="AL45" s="261"/>
-      <c r="AM45" s="261"/>
-      <c r="AN45" s="261"/>
-      <c r="AO45" s="261"/>
-      <c r="AP45" s="261"/>
-      <c r="AQ45" s="261"/>
-      <c r="AR45" s="261"/>
-      <c r="AS45" s="261"/>
-      <c r="AT45" s="261"/>
-      <c r="AU45" s="261"/>
-      <c r="AV45" s="261"/>
-      <c r="AW45" s="261"/>
-      <c r="AX45" s="261"/>
-      <c r="AY45" s="261"/>
-      <c r="AZ45" s="261"/>
-      <c r="BA45" s="261"/>
-      <c r="BB45" s="261"/>
-      <c r="BC45" s="261"/>
-      <c r="BD45" s="261"/>
-      <c r="BE45" s="261"/>
-      <c r="BF45" s="261"/>
-      <c r="BG45" s="261"/>
-      <c r="BH45" s="261"/>
-      <c r="BI45" s="261"/>
-      <c r="BJ45" s="261"/>
-      <c r="BK45" s="261"/>
-      <c r="BL45" s="261"/>
-      <c r="BM45" s="261"/>
-      <c r="BN45" s="261"/>
-      <c r="BO45" s="261"/>
-      <c r="BP45" s="261"/>
-      <c r="BQ45" s="261"/>
-      <c r="BR45" s="262"/>
+      <c r="A45" s="259"/>
+      <c r="B45" s="260"/>
+      <c r="C45" s="260"/>
+      <c r="D45" s="260"/>
+      <c r="E45" s="260"/>
+      <c r="F45" s="260"/>
+      <c r="G45" s="260"/>
+      <c r="H45" s="260"/>
+      <c r="I45" s="260"/>
+      <c r="J45" s="260"/>
+      <c r="K45" s="260"/>
+      <c r="L45" s="260"/>
+      <c r="M45" s="260"/>
+      <c r="N45" s="260"/>
+      <c r="O45" s="260"/>
+      <c r="P45" s="260"/>
+      <c r="Q45" s="260"/>
+      <c r="R45" s="260"/>
+      <c r="S45" s="260"/>
+      <c r="T45" s="260"/>
+      <c r="U45" s="260"/>
+      <c r="V45" s="260"/>
+      <c r="W45" s="260"/>
+      <c r="X45" s="260"/>
+      <c r="Y45" s="260"/>
+      <c r="Z45" s="260"/>
+      <c r="AA45" s="260"/>
+      <c r="AB45" s="260"/>
+      <c r="AC45" s="260"/>
+      <c r="AD45" s="260"/>
+      <c r="AE45" s="260"/>
+      <c r="AF45" s="260"/>
+      <c r="AG45" s="260"/>
+      <c r="AH45" s="260"/>
+      <c r="AI45" s="260"/>
+      <c r="AJ45" s="260"/>
+      <c r="AK45" s="260"/>
+      <c r="AL45" s="260"/>
+      <c r="AM45" s="260"/>
+      <c r="AN45" s="260"/>
+      <c r="AO45" s="260"/>
+      <c r="AP45" s="260"/>
+      <c r="AQ45" s="260"/>
+      <c r="AR45" s="260"/>
+      <c r="AS45" s="260"/>
+      <c r="AT45" s="260"/>
+      <c r="AU45" s="260"/>
+      <c r="AV45" s="260"/>
+      <c r="AW45" s="260"/>
+      <c r="AX45" s="260"/>
+      <c r="AY45" s="260"/>
+      <c r="AZ45" s="260"/>
+      <c r="BA45" s="260"/>
+      <c r="BB45" s="260"/>
+      <c r="BC45" s="260"/>
+      <c r="BD45" s="260"/>
+      <c r="BE45" s="260"/>
+      <c r="BF45" s="260"/>
+      <c r="BG45" s="260"/>
+      <c r="BH45" s="260"/>
+      <c r="BI45" s="260"/>
+      <c r="BJ45" s="260"/>
+      <c r="BK45" s="260"/>
+      <c r="BL45" s="260"/>
+      <c r="BM45" s="260"/>
+      <c r="BN45" s="260"/>
+      <c r="BO45" s="260"/>
+      <c r="BP45" s="260"/>
+      <c r="BQ45" s="260"/>
+      <c r="BR45" s="261"/>
     </row>
     <row r="46" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A46" s="263"/>
-      <c r="B46" s="264"/>
-      <c r="C46" s="264"/>
-      <c r="D46" s="264"/>
-      <c r="E46" s="264"/>
-      <c r="F46" s="264"/>
-      <c r="G46" s="264"/>
-      <c r="H46" s="264"/>
-      <c r="I46" s="264"/>
-      <c r="J46" s="264"/>
-      <c r="K46" s="264"/>
-      <c r="L46" s="264"/>
-      <c r="M46" s="264"/>
-      <c r="N46" s="264"/>
-      <c r="O46" s="264"/>
-      <c r="P46" s="264"/>
-      <c r="Q46" s="264"/>
-      <c r="R46" s="264"/>
-      <c r="S46" s="264"/>
-      <c r="T46" s="264"/>
-      <c r="U46" s="264"/>
-      <c r="V46" s="264"/>
-      <c r="W46" s="264"/>
-      <c r="X46" s="264"/>
-      <c r="Y46" s="264"/>
-      <c r="Z46" s="264"/>
-      <c r="AA46" s="264"/>
-      <c r="AB46" s="264"/>
-      <c r="AC46" s="264"/>
-      <c r="AD46" s="264"/>
-      <c r="AE46" s="264"/>
-      <c r="AF46" s="264"/>
-      <c r="AG46" s="264"/>
-      <c r="AH46" s="264"/>
-      <c r="AI46" s="264"/>
-      <c r="AJ46" s="264"/>
-      <c r="AK46" s="264"/>
-      <c r="AL46" s="264"/>
-      <c r="AM46" s="264"/>
-      <c r="AN46" s="264"/>
-      <c r="AO46" s="264"/>
-      <c r="AP46" s="264"/>
-      <c r="AQ46" s="264"/>
-      <c r="AR46" s="264"/>
-      <c r="AS46" s="264"/>
-      <c r="AT46" s="264"/>
-      <c r="AU46" s="264"/>
-      <c r="AV46" s="264"/>
-      <c r="AW46" s="264"/>
-      <c r="AX46" s="264"/>
-      <c r="AY46" s="264"/>
-      <c r="AZ46" s="264"/>
-      <c r="BA46" s="264"/>
-      <c r="BB46" s="264"/>
-      <c r="BC46" s="264"/>
-      <c r="BD46" s="264"/>
-      <c r="BE46" s="264"/>
-      <c r="BF46" s="264"/>
-      <c r="BG46" s="264"/>
-      <c r="BH46" s="264"/>
-      <c r="BI46" s="264"/>
-      <c r="BJ46" s="264"/>
-      <c r="BK46" s="264"/>
-      <c r="BL46" s="264"/>
-      <c r="BM46" s="264"/>
-      <c r="BN46" s="264"/>
-      <c r="BO46" s="264"/>
-      <c r="BP46" s="264"/>
-      <c r="BQ46" s="264"/>
-      <c r="BR46" s="265"/>
+      <c r="A46" s="262"/>
+      <c r="B46" s="263"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+      <c r="I46" s="263"/>
+      <c r="J46" s="263"/>
+      <c r="K46" s="263"/>
+      <c r="L46" s="263"/>
+      <c r="M46" s="263"/>
+      <c r="N46" s="263"/>
+      <c r="O46" s="263"/>
+      <c r="P46" s="263"/>
+      <c r="Q46" s="263"/>
+      <c r="R46" s="263"/>
+      <c r="S46" s="263"/>
+      <c r="T46" s="263"/>
+      <c r="U46" s="263"/>
+      <c r="V46" s="263"/>
+      <c r="W46" s="263"/>
+      <c r="X46" s="263"/>
+      <c r="Y46" s="263"/>
+      <c r="Z46" s="263"/>
+      <c r="AA46" s="263"/>
+      <c r="AB46" s="263"/>
+      <c r="AC46" s="263"/>
+      <c r="AD46" s="263"/>
+      <c r="AE46" s="263"/>
+      <c r="AF46" s="263"/>
+      <c r="AG46" s="263"/>
+      <c r="AH46" s="263"/>
+      <c r="AI46" s="263"/>
+      <c r="AJ46" s="263"/>
+      <c r="AK46" s="263"/>
+      <c r="AL46" s="263"/>
+      <c r="AM46" s="263"/>
+      <c r="AN46" s="263"/>
+      <c r="AO46" s="263"/>
+      <c r="AP46" s="263"/>
+      <c r="AQ46" s="263"/>
+      <c r="AR46" s="263"/>
+      <c r="AS46" s="263"/>
+      <c r="AT46" s="263"/>
+      <c r="AU46" s="263"/>
+      <c r="AV46" s="263"/>
+      <c r="AW46" s="263"/>
+      <c r="AX46" s="263"/>
+      <c r="AY46" s="263"/>
+      <c r="AZ46" s="263"/>
+      <c r="BA46" s="263"/>
+      <c r="BB46" s="263"/>
+      <c r="BC46" s="263"/>
+      <c r="BD46" s="263"/>
+      <c r="BE46" s="263"/>
+      <c r="BF46" s="263"/>
+      <c r="BG46" s="263"/>
+      <c r="BH46" s="263"/>
+      <c r="BI46" s="263"/>
+      <c r="BJ46" s="263"/>
+      <c r="BK46" s="263"/>
+      <c r="BL46" s="263"/>
+      <c r="BM46" s="263"/>
+      <c r="BN46" s="263"/>
+      <c r="BO46" s="263"/>
+      <c r="BP46" s="263"/>
+      <c r="BQ46" s="263"/>
+      <c r="BR46" s="264"/>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A47" s="266"/>
-      <c r="B47" s="266"/>
-      <c r="C47" s="266"/>
-      <c r="D47" s="266"/>
-      <c r="E47" s="266"/>
-      <c r="F47" s="266"/>
-      <c r="G47" s="266"/>
-      <c r="H47" s="266"/>
-      <c r="I47" s="266"/>
-      <c r="J47" s="266"/>
-      <c r="K47" s="266"/>
-      <c r="L47" s="266"/>
-      <c r="M47" s="266"/>
-      <c r="N47" s="266"/>
-      <c r="O47" s="266"/>
-      <c r="P47" s="266"/>
-      <c r="Q47" s="266"/>
-      <c r="R47" s="266"/>
-      <c r="S47" s="266"/>
-      <c r="T47" s="266"/>
-      <c r="U47" s="266"/>
-      <c r="V47" s="266"/>
-      <c r="W47" s="266"/>
-      <c r="X47" s="266"/>
-      <c r="Y47" s="266"/>
-      <c r="Z47" s="266"/>
-      <c r="AA47" s="266"/>
-      <c r="AB47" s="266"/>
-      <c r="AC47" s="266"/>
-      <c r="AD47" s="266"/>
-      <c r="AE47" s="266"/>
-      <c r="AF47" s="266"/>
-      <c r="AG47" s="266"/>
-      <c r="AH47" s="266"/>
-      <c r="AI47" s="266"/>
-      <c r="AJ47" s="266"/>
-      <c r="AK47" s="266"/>
-      <c r="AL47" s="266"/>
-      <c r="AM47" s="266"/>
-      <c r="AN47" s="266"/>
-      <c r="AO47" s="266"/>
-      <c r="AP47" s="266"/>
-      <c r="AQ47" s="266"/>
-      <c r="AR47" s="266"/>
-      <c r="AS47" s="266"/>
-      <c r="AT47" s="266"/>
-      <c r="AU47" s="266"/>
-      <c r="AV47" s="266"/>
-      <c r="AW47" s="266"/>
-      <c r="AX47" s="266"/>
-      <c r="AY47" s="266"/>
-      <c r="AZ47" s="266"/>
-      <c r="BA47" s="266"/>
-      <c r="BB47" s="266"/>
-      <c r="BC47" s="266"/>
-      <c r="BD47" s="266"/>
-      <c r="BE47" s="266"/>
-      <c r="BF47" s="266"/>
-      <c r="BG47" s="266"/>
-      <c r="BH47" s="266"/>
-      <c r="BI47" s="266"/>
-      <c r="BJ47" s="266"/>
-      <c r="BK47" s="266"/>
-      <c r="BL47" s="266"/>
-      <c r="BM47" s="266"/>
-      <c r="BN47" s="266"/>
-      <c r="BO47" s="266"/>
-      <c r="BP47" s="266"/>
-      <c r="BQ47" s="266"/>
-      <c r="BR47" s="266"/>
+      <c r="A47" s="265"/>
+      <c r="B47" s="265"/>
+      <c r="C47" s="265"/>
+      <c r="D47" s="265"/>
+      <c r="E47" s="265"/>
+      <c r="F47" s="265"/>
+      <c r="G47" s="265"/>
+      <c r="H47" s="265"/>
+      <c r="I47" s="265"/>
+      <c r="J47" s="265"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="265"/>
+      <c r="M47" s="265"/>
+      <c r="N47" s="265"/>
+      <c r="O47" s="265"/>
+      <c r="P47" s="265"/>
+      <c r="Q47" s="265"/>
+      <c r="R47" s="265"/>
+      <c r="S47" s="265"/>
+      <c r="T47" s="265"/>
+      <c r="U47" s="265"/>
+      <c r="V47" s="265"/>
+      <c r="W47" s="265"/>
+      <c r="X47" s="265"/>
+      <c r="Y47" s="265"/>
+      <c r="Z47" s="265"/>
+      <c r="AA47" s="265"/>
+      <c r="AB47" s="265"/>
+      <c r="AC47" s="265"/>
+      <c r="AD47" s="265"/>
+      <c r="AE47" s="265"/>
+      <c r="AF47" s="265"/>
+      <c r="AG47" s="265"/>
+      <c r="AH47" s="265"/>
+      <c r="AI47" s="265"/>
+      <c r="AJ47" s="265"/>
+      <c r="AK47" s="265"/>
+      <c r="AL47" s="265"/>
+      <c r="AM47" s="265"/>
+      <c r="AN47" s="265"/>
+      <c r="AO47" s="265"/>
+      <c r="AP47" s="265"/>
+      <c r="AQ47" s="265"/>
+      <c r="AR47" s="265"/>
+      <c r="AS47" s="265"/>
+      <c r="AT47" s="265"/>
+      <c r="AU47" s="265"/>
+      <c r="AV47" s="265"/>
+      <c r="AW47" s="265"/>
+      <c r="AX47" s="265"/>
+      <c r="AY47" s="265"/>
+      <c r="AZ47" s="265"/>
+      <c r="BA47" s="265"/>
+      <c r="BB47" s="265"/>
+      <c r="BC47" s="265"/>
+      <c r="BD47" s="265"/>
+      <c r="BE47" s="265"/>
+      <c r="BF47" s="265"/>
+      <c r="BG47" s="265"/>
+      <c r="BH47" s="265"/>
+      <c r="BI47" s="265"/>
+      <c r="BJ47" s="265"/>
+      <c r="BK47" s="265"/>
+      <c r="BL47" s="265"/>
+      <c r="BM47" s="265"/>
+      <c r="BN47" s="265"/>
+      <c r="BO47" s="265"/>
+      <c r="BP47" s="265"/>
+      <c r="BQ47" s="265"/>
+      <c r="BR47" s="265"/>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A48" s="266"/>
-      <c r="B48" s="266"/>
-      <c r="C48" s="266"/>
-      <c r="D48" s="266"/>
-      <c r="E48" s="266"/>
-      <c r="F48" s="266"/>
-      <c r="G48" s="266"/>
-      <c r="H48" s="266"/>
-      <c r="I48" s="266"/>
-      <c r="J48" s="266"/>
-      <c r="K48" s="266"/>
-      <c r="L48" s="266"/>
-      <c r="M48" s="266"/>
-      <c r="N48" s="266"/>
-      <c r="O48" s="266"/>
-      <c r="P48" s="266"/>
-      <c r="Q48" s="266"/>
-      <c r="R48" s="266"/>
-      <c r="S48" s="266"/>
-      <c r="T48" s="266"/>
-      <c r="U48" s="266"/>
-      <c r="V48" s="266"/>
-      <c r="W48" s="266"/>
-      <c r="X48" s="266"/>
-      <c r="Y48" s="266"/>
-      <c r="Z48" s="266"/>
-      <c r="AA48" s="266"/>
-      <c r="AB48" s="266"/>
-      <c r="AC48" s="266"/>
-      <c r="AD48" s="266"/>
-      <c r="AE48" s="266"/>
-      <c r="AF48" s="266"/>
-      <c r="AG48" s="266"/>
-      <c r="AH48" s="266"/>
-      <c r="AI48" s="266"/>
-      <c r="AJ48" s="266"/>
-      <c r="AK48" s="266"/>
-      <c r="AL48" s="266"/>
-      <c r="AM48" s="266"/>
-      <c r="AN48" s="266"/>
-      <c r="AO48" s="266"/>
-      <c r="AP48" s="266"/>
-      <c r="AQ48" s="266"/>
-      <c r="AR48" s="266"/>
-      <c r="AS48" s="266"/>
-      <c r="AT48" s="266"/>
-      <c r="AU48" s="266"/>
-      <c r="AV48" s="266"/>
-      <c r="AW48" s="266"/>
-      <c r="AX48" s="266"/>
-      <c r="AY48" s="266"/>
-      <c r="AZ48" s="266"/>
-      <c r="BA48" s="266"/>
-      <c r="BB48" s="266"/>
-      <c r="BC48" s="266"/>
-      <c r="BD48" s="266"/>
-      <c r="BE48" s="266"/>
-      <c r="BF48" s="266"/>
-      <c r="BG48" s="266"/>
-      <c r="BH48" s="266"/>
-      <c r="BI48" s="266"/>
-      <c r="BJ48" s="266"/>
-      <c r="BK48" s="266"/>
-      <c r="BL48" s="266"/>
-      <c r="BM48" s="266"/>
-      <c r="BN48" s="266"/>
-      <c r="BO48" s="266"/>
-      <c r="BP48" s="266"/>
-      <c r="BQ48" s="266"/>
-      <c r="BR48" s="266"/>
+      <c r="A48" s="265"/>
+      <c r="B48" s="265"/>
+      <c r="C48" s="265"/>
+      <c r="D48" s="265"/>
+      <c r="E48" s="265"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="265"/>
+      <c r="H48" s="265"/>
+      <c r="I48" s="265"/>
+      <c r="J48" s="265"/>
+      <c r="K48" s="265"/>
+      <c r="L48" s="265"/>
+      <c r="M48" s="265"/>
+      <c r="N48" s="265"/>
+      <c r="O48" s="265"/>
+      <c r="P48" s="265"/>
+      <c r="Q48" s="265"/>
+      <c r="R48" s="265"/>
+      <c r="S48" s="265"/>
+      <c r="T48" s="265"/>
+      <c r="U48" s="265"/>
+      <c r="V48" s="265"/>
+      <c r="W48" s="265"/>
+      <c r="X48" s="265"/>
+      <c r="Y48" s="265"/>
+      <c r="Z48" s="265"/>
+      <c r="AA48" s="265"/>
+      <c r="AB48" s="265"/>
+      <c r="AC48" s="265"/>
+      <c r="AD48" s="265"/>
+      <c r="AE48" s="265"/>
+      <c r="AF48" s="265"/>
+      <c r="AG48" s="265"/>
+      <c r="AH48" s="265"/>
+      <c r="AI48" s="265"/>
+      <c r="AJ48" s="265"/>
+      <c r="AK48" s="265"/>
+      <c r="AL48" s="265"/>
+      <c r="AM48" s="265"/>
+      <c r="AN48" s="265"/>
+      <c r="AO48" s="265"/>
+      <c r="AP48" s="265"/>
+      <c r="AQ48" s="265"/>
+      <c r="AR48" s="265"/>
+      <c r="AS48" s="265"/>
+      <c r="AT48" s="265"/>
+      <c r="AU48" s="265"/>
+      <c r="AV48" s="265"/>
+      <c r="AW48" s="265"/>
+      <c r="AX48" s="265"/>
+      <c r="AY48" s="265"/>
+      <c r="AZ48" s="265"/>
+      <c r="BA48" s="265"/>
+      <c r="BB48" s="265"/>
+      <c r="BC48" s="265"/>
+      <c r="BD48" s="265"/>
+      <c r="BE48" s="265"/>
+      <c r="BF48" s="265"/>
+      <c r="BG48" s="265"/>
+      <c r="BH48" s="265"/>
+      <c r="BI48" s="265"/>
+      <c r="BJ48" s="265"/>
+      <c r="BK48" s="265"/>
+      <c r="BL48" s="265"/>
+      <c r="BM48" s="265"/>
+      <c r="BN48" s="265"/>
+      <c r="BO48" s="265"/>
+      <c r="BP48" s="265"/>
+      <c r="BQ48" s="265"/>
+      <c r="BR48" s="265"/>
     </row>
     <row r="49" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A49" s="266"/>
-      <c r="B49" s="266"/>
-      <c r="C49" s="266"/>
-      <c r="D49" s="266"/>
-      <c r="E49" s="266"/>
-      <c r="F49" s="266"/>
-      <c r="G49" s="266"/>
-      <c r="H49" s="266"/>
-      <c r="I49" s="266"/>
-      <c r="J49" s="266"/>
-      <c r="K49" s="266"/>
-      <c r="L49" s="266"/>
-      <c r="M49" s="266"/>
-      <c r="N49" s="266"/>
-      <c r="O49" s="266"/>
-      <c r="P49" s="266"/>
-      <c r="Q49" s="266"/>
-      <c r="R49" s="266"/>
-      <c r="S49" s="266"/>
-      <c r="T49" s="266"/>
-      <c r="U49" s="266"/>
-      <c r="V49" s="266"/>
-      <c r="W49" s="266"/>
-      <c r="X49" s="266"/>
-      <c r="Y49" s="266"/>
-      <c r="Z49" s="266"/>
-      <c r="AA49" s="266"/>
-      <c r="AB49" s="266"/>
-      <c r="AC49" s="266"/>
-      <c r="AD49" s="266"/>
-      <c r="AE49" s="266"/>
-      <c r="AF49" s="266"/>
-      <c r="AG49" s="266"/>
-      <c r="AH49" s="266"/>
-      <c r="AI49" s="266"/>
-      <c r="AJ49" s="266"/>
-      <c r="AK49" s="266"/>
-      <c r="AL49" s="266"/>
-      <c r="AM49" s="266"/>
-      <c r="AN49" s="266"/>
-      <c r="AO49" s="266"/>
-      <c r="AP49" s="266"/>
-      <c r="AQ49" s="266"/>
-      <c r="AR49" s="266"/>
-      <c r="AS49" s="266"/>
-      <c r="AT49" s="266"/>
-      <c r="AU49" s="266"/>
-      <c r="AV49" s="266"/>
-      <c r="AW49" s="266"/>
-      <c r="AX49" s="266"/>
-      <c r="AY49" s="266"/>
-      <c r="AZ49" s="266"/>
-      <c r="BA49" s="266"/>
-      <c r="BB49" s="266"/>
-      <c r="BC49" s="266"/>
-      <c r="BD49" s="266"/>
-      <c r="BE49" s="266"/>
-      <c r="BF49" s="266"/>
-      <c r="BG49" s="266"/>
-      <c r="BH49" s="266"/>
-      <c r="BI49" s="266"/>
-      <c r="BJ49" s="266"/>
-      <c r="BK49" s="266"/>
-      <c r="BL49" s="266"/>
-      <c r="BM49" s="266"/>
-      <c r="BN49" s="266"/>
-      <c r="BO49" s="266"/>
-      <c r="BP49" s="266"/>
-      <c r="BQ49" s="266"/>
-      <c r="BR49" s="266"/>
+      <c r="A49" s="265"/>
+      <c r="B49" s="265"/>
+      <c r="C49" s="265"/>
+      <c r="D49" s="265"/>
+      <c r="E49" s="265"/>
+      <c r="F49" s="265"/>
+      <c r="G49" s="265"/>
+      <c r="H49" s="265"/>
+      <c r="I49" s="265"/>
+      <c r="J49" s="265"/>
+      <c r="K49" s="265"/>
+      <c r="L49" s="265"/>
+      <c r="M49" s="265"/>
+      <c r="N49" s="265"/>
+      <c r="O49" s="265"/>
+      <c r="P49" s="265"/>
+      <c r="Q49" s="265"/>
+      <c r="R49" s="265"/>
+      <c r="S49" s="265"/>
+      <c r="T49" s="265"/>
+      <c r="U49" s="265"/>
+      <c r="V49" s="265"/>
+      <c r="W49" s="265"/>
+      <c r="X49" s="265"/>
+      <c r="Y49" s="265"/>
+      <c r="Z49" s="265"/>
+      <c r="AA49" s="265"/>
+      <c r="AB49" s="265"/>
+      <c r="AC49" s="265"/>
+      <c r="AD49" s="265"/>
+      <c r="AE49" s="265"/>
+      <c r="AF49" s="265"/>
+      <c r="AG49" s="265"/>
+      <c r="AH49" s="265"/>
+      <c r="AI49" s="265"/>
+      <c r="AJ49" s="265"/>
+      <c r="AK49" s="265"/>
+      <c r="AL49" s="265"/>
+      <c r="AM49" s="265"/>
+      <c r="AN49" s="265"/>
+      <c r="AO49" s="265"/>
+      <c r="AP49" s="265"/>
+      <c r="AQ49" s="265"/>
+      <c r="AR49" s="265"/>
+      <c r="AS49" s="265"/>
+      <c r="AT49" s="265"/>
+      <c r="AU49" s="265"/>
+      <c r="AV49" s="265"/>
+      <c r="AW49" s="265"/>
+      <c r="AX49" s="265"/>
+      <c r="AY49" s="265"/>
+      <c r="AZ49" s="265"/>
+      <c r="BA49" s="265"/>
+      <c r="BB49" s="265"/>
+      <c r="BC49" s="265"/>
+      <c r="BD49" s="265"/>
+      <c r="BE49" s="265"/>
+      <c r="BF49" s="265"/>
+      <c r="BG49" s="265"/>
+      <c r="BH49" s="265"/>
+      <c r="BI49" s="265"/>
+      <c r="BJ49" s="265"/>
+      <c r="BK49" s="265"/>
+      <c r="BL49" s="265"/>
+      <c r="BM49" s="265"/>
+      <c r="BN49" s="265"/>
+      <c r="BO49" s="265"/>
+      <c r="BP49" s="265"/>
+      <c r="BQ49" s="265"/>
+      <c r="BR49" s="265"/>
     </row>
     <row r="50" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A50" s="266"/>
-      <c r="B50" s="266"/>
-      <c r="C50" s="266"/>
-      <c r="D50" s="266"/>
-      <c r="E50" s="266"/>
-      <c r="F50" s="266"/>
-      <c r="G50" s="266"/>
-      <c r="H50" s="266"/>
-      <c r="I50" s="266"/>
-      <c r="J50" s="266"/>
-      <c r="K50" s="266"/>
-      <c r="L50" s="266"/>
-      <c r="M50" s="266"/>
-      <c r="N50" s="266"/>
-      <c r="O50" s="266"/>
-      <c r="P50" s="266"/>
-      <c r="Q50" s="266"/>
-      <c r="R50" s="266"/>
-      <c r="S50" s="266"/>
-      <c r="T50" s="266"/>
-      <c r="U50" s="266"/>
-      <c r="V50" s="266"/>
-      <c r="W50" s="266"/>
-      <c r="X50" s="266"/>
-      <c r="Y50" s="266"/>
-      <c r="Z50" s="266"/>
-      <c r="AA50" s="266"/>
-      <c r="AB50" s="266"/>
-      <c r="AC50" s="266"/>
-      <c r="AD50" s="266"/>
-      <c r="AE50" s="266"/>
-      <c r="AF50" s="266"/>
-      <c r="AG50" s="266"/>
-      <c r="AH50" s="266"/>
-      <c r="AI50" s="266"/>
-      <c r="AJ50" s="266"/>
-      <c r="AK50" s="266"/>
-      <c r="AL50" s="266"/>
-      <c r="AM50" s="266"/>
-      <c r="AN50" s="266"/>
-      <c r="AO50" s="266"/>
-      <c r="AP50" s="266"/>
-      <c r="AQ50" s="266"/>
-      <c r="AR50" s="266"/>
-      <c r="AS50" s="266"/>
-      <c r="AT50" s="266"/>
-      <c r="AU50" s="266"/>
-      <c r="AV50" s="266"/>
-      <c r="AW50" s="266"/>
-      <c r="AX50" s="266"/>
-      <c r="AY50" s="266"/>
-      <c r="AZ50" s="266"/>
-      <c r="BA50" s="266"/>
-      <c r="BB50" s="266"/>
-      <c r="BC50" s="266"/>
-      <c r="BD50" s="266"/>
-      <c r="BE50" s="266"/>
-      <c r="BF50" s="266"/>
-      <c r="BG50" s="266"/>
-      <c r="BH50" s="266"/>
-      <c r="BI50" s="266"/>
-      <c r="BJ50" s="266"/>
-      <c r="BK50" s="266"/>
-      <c r="BL50" s="266"/>
-      <c r="BM50" s="266"/>
-      <c r="BN50" s="266"/>
-      <c r="BO50" s="266"/>
-      <c r="BP50" s="266"/>
-      <c r="BQ50" s="266"/>
-      <c r="BR50" s="266"/>
+      <c r="A50" s="265"/>
+      <c r="B50" s="265"/>
+      <c r="C50" s="265"/>
+      <c r="D50" s="265"/>
+      <c r="E50" s="265"/>
+      <c r="F50" s="265"/>
+      <c r="G50" s="265"/>
+      <c r="H50" s="265"/>
+      <c r="I50" s="265"/>
+      <c r="J50" s="265"/>
+      <c r="K50" s="265"/>
+      <c r="L50" s="265"/>
+      <c r="M50" s="265"/>
+      <c r="N50" s="265"/>
+      <c r="O50" s="265"/>
+      <c r="P50" s="265"/>
+      <c r="Q50" s="265"/>
+      <c r="R50" s="265"/>
+      <c r="S50" s="265"/>
+      <c r="T50" s="265"/>
+      <c r="U50" s="265"/>
+      <c r="V50" s="265"/>
+      <c r="W50" s="265"/>
+      <c r="X50" s="265"/>
+      <c r="Y50" s="265"/>
+      <c r="Z50" s="265"/>
+      <c r="AA50" s="265"/>
+      <c r="AB50" s="265"/>
+      <c r="AC50" s="265"/>
+      <c r="AD50" s="265"/>
+      <c r="AE50" s="265"/>
+      <c r="AF50" s="265"/>
+      <c r="AG50" s="265"/>
+      <c r="AH50" s="265"/>
+      <c r="AI50" s="265"/>
+      <c r="AJ50" s="265"/>
+      <c r="AK50" s="265"/>
+      <c r="AL50" s="265"/>
+      <c r="AM50" s="265"/>
+      <c r="AN50" s="265"/>
+      <c r="AO50" s="265"/>
+      <c r="AP50" s="265"/>
+      <c r="AQ50" s="265"/>
+      <c r="AR50" s="265"/>
+      <c r="AS50" s="265"/>
+      <c r="AT50" s="265"/>
+      <c r="AU50" s="265"/>
+      <c r="AV50" s="265"/>
+      <c r="AW50" s="265"/>
+      <c r="AX50" s="265"/>
+      <c r="AY50" s="265"/>
+      <c r="AZ50" s="265"/>
+      <c r="BA50" s="265"/>
+      <c r="BB50" s="265"/>
+      <c r="BC50" s="265"/>
+      <c r="BD50" s="265"/>
+      <c r="BE50" s="265"/>
+      <c r="BF50" s="265"/>
+      <c r="BG50" s="265"/>
+      <c r="BH50" s="265"/>
+      <c r="BI50" s="265"/>
+      <c r="BJ50" s="265"/>
+      <c r="BK50" s="265"/>
+      <c r="BL50" s="265"/>
+      <c r="BM50" s="265"/>
+      <c r="BN50" s="265"/>
+      <c r="BO50" s="265"/>
+      <c r="BP50" s="265"/>
+      <c r="BQ50" s="265"/>
+      <c r="BR50" s="265"/>
     </row>
     <row r="51" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A51" s="266"/>
-      <c r="B51" s="266"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="266"/>
-      <c r="E51" s="266"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="266"/>
-      <c r="H51" s="266"/>
-      <c r="I51" s="266"/>
-      <c r="J51" s="266"/>
-      <c r="K51" s="266"/>
-      <c r="L51" s="266"/>
-      <c r="M51" s="266"/>
-      <c r="N51" s="266"/>
-      <c r="O51" s="266"/>
-      <c r="P51" s="266"/>
-      <c r="Q51" s="266"/>
-      <c r="R51" s="266"/>
-      <c r="S51" s="266"/>
-      <c r="T51" s="266"/>
-      <c r="U51" s="266"/>
-      <c r="V51" s="266"/>
-      <c r="W51" s="266"/>
-      <c r="X51" s="266"/>
-      <c r="Y51" s="266"/>
-      <c r="Z51" s="266"/>
-      <c r="AA51" s="266"/>
-      <c r="AB51" s="266"/>
-      <c r="AC51" s="266"/>
-      <c r="AD51" s="266"/>
-      <c r="AE51" s="266"/>
-      <c r="AF51" s="266"/>
-      <c r="AG51" s="266"/>
-      <c r="AH51" s="266"/>
-      <c r="AI51" s="266"/>
-      <c r="AJ51" s="266"/>
-      <c r="AK51" s="266"/>
-      <c r="AL51" s="266"/>
-      <c r="AM51" s="266"/>
-      <c r="AN51" s="266"/>
-      <c r="AO51" s="266"/>
-      <c r="AP51" s="266"/>
-      <c r="AQ51" s="266"/>
-      <c r="AR51" s="266"/>
-      <c r="AS51" s="266"/>
-      <c r="AT51" s="266"/>
-      <c r="AU51" s="266"/>
-      <c r="AV51" s="266"/>
-      <c r="AW51" s="266"/>
-      <c r="AX51" s="266"/>
-      <c r="AY51" s="266"/>
-      <c r="AZ51" s="266"/>
-      <c r="BA51" s="266"/>
-      <c r="BB51" s="266"/>
-      <c r="BC51" s="266"/>
-      <c r="BD51" s="266"/>
-      <c r="BE51" s="266"/>
-      <c r="BF51" s="266"/>
-      <c r="BG51" s="266"/>
-      <c r="BH51" s="266"/>
-      <c r="BI51" s="266"/>
-      <c r="BJ51" s="266"/>
-      <c r="BK51" s="266"/>
-      <c r="BL51" s="266"/>
-      <c r="BM51" s="266"/>
-      <c r="BN51" s="266"/>
-      <c r="BO51" s="266"/>
-      <c r="BP51" s="266"/>
-      <c r="BQ51" s="266"/>
-      <c r="BR51" s="266"/>
+      <c r="A51" s="265"/>
+      <c r="B51" s="265"/>
+      <c r="C51" s="265"/>
+      <c r="D51" s="265"/>
+      <c r="E51" s="265"/>
+      <c r="F51" s="265"/>
+      <c r="G51" s="265"/>
+      <c r="H51" s="265"/>
+      <c r="I51" s="265"/>
+      <c r="J51" s="265"/>
+      <c r="K51" s="265"/>
+      <c r="L51" s="265"/>
+      <c r="M51" s="265"/>
+      <c r="N51" s="265"/>
+      <c r="O51" s="265"/>
+      <c r="P51" s="265"/>
+      <c r="Q51" s="265"/>
+      <c r="R51" s="265"/>
+      <c r="S51" s="265"/>
+      <c r="T51" s="265"/>
+      <c r="U51" s="265"/>
+      <c r="V51" s="265"/>
+      <c r="W51" s="265"/>
+      <c r="X51" s="265"/>
+      <c r="Y51" s="265"/>
+      <c r="Z51" s="265"/>
+      <c r="AA51" s="265"/>
+      <c r="AB51" s="265"/>
+      <c r="AC51" s="265"/>
+      <c r="AD51" s="265"/>
+      <c r="AE51" s="265"/>
+      <c r="AF51" s="265"/>
+      <c r="AG51" s="265"/>
+      <c r="AH51" s="265"/>
+      <c r="AI51" s="265"/>
+      <c r="AJ51" s="265"/>
+      <c r="AK51" s="265"/>
+      <c r="AL51" s="265"/>
+      <c r="AM51" s="265"/>
+      <c r="AN51" s="265"/>
+      <c r="AO51" s="265"/>
+      <c r="AP51" s="265"/>
+      <c r="AQ51" s="265"/>
+      <c r="AR51" s="265"/>
+      <c r="AS51" s="265"/>
+      <c r="AT51" s="265"/>
+      <c r="AU51" s="265"/>
+      <c r="AV51" s="265"/>
+      <c r="AW51" s="265"/>
+      <c r="AX51" s="265"/>
+      <c r="AY51" s="265"/>
+      <c r="AZ51" s="265"/>
+      <c r="BA51" s="265"/>
+      <c r="BB51" s="265"/>
+      <c r="BC51" s="265"/>
+      <c r="BD51" s="265"/>
+      <c r="BE51" s="265"/>
+      <c r="BF51" s="265"/>
+      <c r="BG51" s="265"/>
+      <c r="BH51" s="265"/>
+      <c r="BI51" s="265"/>
+      <c r="BJ51" s="265"/>
+      <c r="BK51" s="265"/>
+      <c r="BL51" s="265"/>
+      <c r="BM51" s="265"/>
+      <c r="BN51" s="265"/>
+      <c r="BO51" s="265"/>
+      <c r="BP51" s="265"/>
+      <c r="BQ51" s="265"/>
+      <c r="BR51" s="265"/>
     </row>
     <row r="52" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A52" s="266"/>
-      <c r="B52" s="266"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="266"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="266"/>
-      <c r="H52" s="266"/>
-      <c r="I52" s="266"/>
-      <c r="J52" s="266"/>
-      <c r="K52" s="266"/>
-      <c r="L52" s="266"/>
-      <c r="M52" s="266"/>
-      <c r="N52" s="266"/>
-      <c r="O52" s="266"/>
-      <c r="P52" s="266"/>
-      <c r="Q52" s="266"/>
-      <c r="R52" s="266"/>
-      <c r="S52" s="266"/>
-      <c r="T52" s="266"/>
-      <c r="U52" s="266"/>
-      <c r="V52" s="266"/>
-      <c r="W52" s="266"/>
-      <c r="X52" s="266"/>
-      <c r="Y52" s="266"/>
-      <c r="Z52" s="266"/>
-      <c r="AA52" s="266"/>
-      <c r="AB52" s="266"/>
-      <c r="AC52" s="266"/>
-      <c r="AD52" s="266"/>
-      <c r="AE52" s="266"/>
-      <c r="AF52" s="266"/>
-      <c r="AG52" s="266"/>
-      <c r="AH52" s="266"/>
-      <c r="AI52" s="266"/>
-      <c r="AJ52" s="266"/>
-      <c r="AK52" s="266"/>
-      <c r="AL52" s="266"/>
-      <c r="AM52" s="266"/>
-      <c r="AN52" s="266"/>
-      <c r="AO52" s="266"/>
-      <c r="AP52" s="266"/>
-      <c r="AQ52" s="266"/>
-      <c r="AR52" s="266"/>
-      <c r="AS52" s="266"/>
-      <c r="AT52" s="266"/>
-      <c r="AU52" s="266"/>
-      <c r="AV52" s="266"/>
-      <c r="AW52" s="266"/>
-      <c r="AX52" s="266"/>
-      <c r="AY52" s="266"/>
-      <c r="AZ52" s="266"/>
-      <c r="BA52" s="266"/>
-      <c r="BB52" s="266"/>
-      <c r="BC52" s="266"/>
-      <c r="BD52" s="266"/>
-      <c r="BE52" s="266"/>
-      <c r="BF52" s="266"/>
-      <c r="BG52" s="266"/>
-      <c r="BH52" s="266"/>
-      <c r="BI52" s="266"/>
-      <c r="BJ52" s="266"/>
-      <c r="BK52" s="266"/>
-      <c r="BL52" s="266"/>
-      <c r="BM52" s="266"/>
-      <c r="BN52" s="266"/>
-      <c r="BO52" s="266"/>
-      <c r="BP52" s="266"/>
-      <c r="BQ52" s="266"/>
-      <c r="BR52" s="266"/>
+      <c r="A52" s="265"/>
+      <c r="B52" s="265"/>
+      <c r="C52" s="265"/>
+      <c r="D52" s="265"/>
+      <c r="E52" s="265"/>
+      <c r="F52" s="265"/>
+      <c r="G52" s="265"/>
+      <c r="H52" s="265"/>
+      <c r="I52" s="265"/>
+      <c r="J52" s="265"/>
+      <c r="K52" s="265"/>
+      <c r="L52" s="265"/>
+      <c r="M52" s="265"/>
+      <c r="N52" s="265"/>
+      <c r="O52" s="265"/>
+      <c r="P52" s="265"/>
+      <c r="Q52" s="265"/>
+      <c r="R52" s="265"/>
+      <c r="S52" s="265"/>
+      <c r="T52" s="265"/>
+      <c r="U52" s="265"/>
+      <c r="V52" s="265"/>
+      <c r="W52" s="265"/>
+      <c r="X52" s="265"/>
+      <c r="Y52" s="265"/>
+      <c r="Z52" s="265"/>
+      <c r="AA52" s="265"/>
+      <c r="AB52" s="265"/>
+      <c r="AC52" s="265"/>
+      <c r="AD52" s="265"/>
+      <c r="AE52" s="265"/>
+      <c r="AF52" s="265"/>
+      <c r="AG52" s="265"/>
+      <c r="AH52" s="265"/>
+      <c r="AI52" s="265"/>
+      <c r="AJ52" s="265"/>
+      <c r="AK52" s="265"/>
+      <c r="AL52" s="265"/>
+      <c r="AM52" s="265"/>
+      <c r="AN52" s="265"/>
+      <c r="AO52" s="265"/>
+      <c r="AP52" s="265"/>
+      <c r="AQ52" s="265"/>
+      <c r="AR52" s="265"/>
+      <c r="AS52" s="265"/>
+      <c r="AT52" s="265"/>
+      <c r="AU52" s="265"/>
+      <c r="AV52" s="265"/>
+      <c r="AW52" s="265"/>
+      <c r="AX52" s="265"/>
+      <c r="AY52" s="265"/>
+      <c r="AZ52" s="265"/>
+      <c r="BA52" s="265"/>
+      <c r="BB52" s="265"/>
+      <c r="BC52" s="265"/>
+      <c r="BD52" s="265"/>
+      <c r="BE52" s="265"/>
+      <c r="BF52" s="265"/>
+      <c r="BG52" s="265"/>
+      <c r="BH52" s="265"/>
+      <c r="BI52" s="265"/>
+      <c r="BJ52" s="265"/>
+      <c r="BK52" s="265"/>
+      <c r="BL52" s="265"/>
+      <c r="BM52" s="265"/>
+      <c r="BN52" s="265"/>
+      <c r="BO52" s="265"/>
+      <c r="BP52" s="265"/>
+      <c r="BQ52" s="265"/>
+      <c r="BR52" s="265"/>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A53" s="266"/>
-      <c r="B53" s="266"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="266"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="266"/>
-      <c r="H53" s="266"/>
-      <c r="I53" s="266"/>
-      <c r="J53" s="266"/>
-      <c r="K53" s="266"/>
-      <c r="L53" s="266"/>
-      <c r="M53" s="266"/>
-      <c r="N53" s="266"/>
-      <c r="O53" s="266"/>
-      <c r="P53" s="266"/>
-      <c r="Q53" s="266"/>
-      <c r="R53" s="266"/>
-      <c r="S53" s="266"/>
-      <c r="T53" s="266"/>
-      <c r="U53" s="266"/>
-      <c r="V53" s="266"/>
-      <c r="W53" s="266"/>
-      <c r="X53" s="266"/>
-      <c r="Y53" s="266"/>
-      <c r="Z53" s="266"/>
-      <c r="AA53" s="266"/>
-      <c r="AB53" s="266"/>
-      <c r="AC53" s="266"/>
-      <c r="AD53" s="266"/>
-      <c r="AE53" s="266"/>
-      <c r="AF53" s="266"/>
-      <c r="AG53" s="266"/>
-      <c r="AH53" s="266"/>
-      <c r="AI53" s="266"/>
-      <c r="AJ53" s="266"/>
-      <c r="AK53" s="266"/>
-      <c r="AL53" s="266"/>
-      <c r="AM53" s="266"/>
-      <c r="AN53" s="266"/>
-      <c r="AO53" s="266"/>
-      <c r="AP53" s="266"/>
-      <c r="AQ53" s="266"/>
-      <c r="AR53" s="266"/>
-      <c r="AS53" s="266"/>
-      <c r="AT53" s="266"/>
-      <c r="AU53" s="266"/>
-      <c r="AV53" s="266"/>
-      <c r="AW53" s="266"/>
-      <c r="AX53" s="266"/>
-      <c r="AY53" s="266"/>
-      <c r="AZ53" s="266"/>
-      <c r="BA53" s="266"/>
-      <c r="BB53" s="266"/>
-      <c r="BC53" s="266"/>
-      <c r="BD53" s="266"/>
-      <c r="BE53" s="266"/>
-      <c r="BF53" s="266"/>
-      <c r="BG53" s="266"/>
-      <c r="BH53" s="266"/>
-      <c r="BI53" s="266"/>
-      <c r="BJ53" s="266"/>
-      <c r="BK53" s="266"/>
-      <c r="BL53" s="266"/>
-      <c r="BM53" s="266"/>
-      <c r="BN53" s="266"/>
-      <c r="BO53" s="266"/>
-      <c r="BP53" s="266"/>
-      <c r="BQ53" s="266"/>
-      <c r="BR53" s="266"/>
+      <c r="A53" s="265"/>
+      <c r="B53" s="265"/>
+      <c r="C53" s="265"/>
+      <c r="D53" s="265"/>
+      <c r="E53" s="265"/>
+      <c r="F53" s="265"/>
+      <c r="G53" s="265"/>
+      <c r="H53" s="265"/>
+      <c r="I53" s="265"/>
+      <c r="J53" s="265"/>
+      <c r="K53" s="265"/>
+      <c r="L53" s="265"/>
+      <c r="M53" s="265"/>
+      <c r="N53" s="265"/>
+      <c r="O53" s="265"/>
+      <c r="P53" s="265"/>
+      <c r="Q53" s="265"/>
+      <c r="R53" s="265"/>
+      <c r="S53" s="265"/>
+      <c r="T53" s="265"/>
+      <c r="U53" s="265"/>
+      <c r="V53" s="265"/>
+      <c r="W53" s="265"/>
+      <c r="X53" s="265"/>
+      <c r="Y53" s="265"/>
+      <c r="Z53" s="265"/>
+      <c r="AA53" s="265"/>
+      <c r="AB53" s="265"/>
+      <c r="AC53" s="265"/>
+      <c r="AD53" s="265"/>
+      <c r="AE53" s="265"/>
+      <c r="AF53" s="265"/>
+      <c r="AG53" s="265"/>
+      <c r="AH53" s="265"/>
+      <c r="AI53" s="265"/>
+      <c r="AJ53" s="265"/>
+      <c r="AK53" s="265"/>
+      <c r="AL53" s="265"/>
+      <c r="AM53" s="265"/>
+      <c r="AN53" s="265"/>
+      <c r="AO53" s="265"/>
+      <c r="AP53" s="265"/>
+      <c r="AQ53" s="265"/>
+      <c r="AR53" s="265"/>
+      <c r="AS53" s="265"/>
+      <c r="AT53" s="265"/>
+      <c r="AU53" s="265"/>
+      <c r="AV53" s="265"/>
+      <c r="AW53" s="265"/>
+      <c r="AX53" s="265"/>
+      <c r="AY53" s="265"/>
+      <c r="AZ53" s="265"/>
+      <c r="BA53" s="265"/>
+      <c r="BB53" s="265"/>
+      <c r="BC53" s="265"/>
+      <c r="BD53" s="265"/>
+      <c r="BE53" s="265"/>
+      <c r="BF53" s="265"/>
+      <c r="BG53" s="265"/>
+      <c r="BH53" s="265"/>
+      <c r="BI53" s="265"/>
+      <c r="BJ53" s="265"/>
+      <c r="BK53" s="265"/>
+      <c r="BL53" s="265"/>
+      <c r="BM53" s="265"/>
+      <c r="BN53" s="265"/>
+      <c r="BO53" s="265"/>
+      <c r="BP53" s="265"/>
+      <c r="BQ53" s="265"/>
+      <c r="BR53" s="265"/>
     </row>
     <row r="54" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A54" s="266"/>
-      <c r="B54" s="266"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="266"/>
-      <c r="E54" s="266"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="266"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="266"/>
-      <c r="L54" s="266"/>
-      <c r="M54" s="266"/>
-      <c r="N54" s="266"/>
-      <c r="O54" s="266"/>
-      <c r="P54" s="266"/>
-      <c r="Q54" s="266"/>
-      <c r="R54" s="266"/>
-      <c r="S54" s="266"/>
-      <c r="T54" s="266"/>
-      <c r="U54" s="266"/>
-      <c r="V54" s="266"/>
-      <c r="W54" s="266"/>
-      <c r="X54" s="266"/>
-      <c r="Y54" s="266"/>
-      <c r="Z54" s="266"/>
-      <c r="AA54" s="266"/>
-      <c r="AB54" s="266"/>
-      <c r="AC54" s="266"/>
-      <c r="AD54" s="266"/>
-      <c r="AE54" s="266"/>
-      <c r="AF54" s="266"/>
-      <c r="AG54" s="266"/>
-      <c r="AH54" s="266"/>
-      <c r="AI54" s="266"/>
-      <c r="AJ54" s="266"/>
-      <c r="AK54" s="266"/>
-      <c r="AL54" s="266"/>
-      <c r="AM54" s="266"/>
-      <c r="AN54" s="266"/>
-      <c r="AO54" s="266"/>
-      <c r="AP54" s="266"/>
-      <c r="AQ54" s="266"/>
-      <c r="AR54" s="266"/>
-      <c r="AS54" s="266"/>
-      <c r="AT54" s="266"/>
-      <c r="AU54" s="266"/>
-      <c r="AV54" s="266"/>
-      <c r="AW54" s="266"/>
-      <c r="AX54" s="266"/>
-      <c r="AY54" s="266"/>
-      <c r="AZ54" s="266"/>
-      <c r="BA54" s="266"/>
-      <c r="BB54" s="266"/>
-      <c r="BC54" s="266"/>
-      <c r="BD54" s="266"/>
-      <c r="BE54" s="266"/>
-      <c r="BF54" s="266"/>
-      <c r="BG54" s="266"/>
-      <c r="BH54" s="266"/>
-      <c r="BI54" s="266"/>
-      <c r="BJ54" s="266"/>
-      <c r="BK54" s="266"/>
-      <c r="BL54" s="266"/>
-      <c r="BM54" s="266"/>
-      <c r="BN54" s="266"/>
-      <c r="BO54" s="266"/>
-      <c r="BP54" s="266"/>
-      <c r="BQ54" s="266"/>
-      <c r="BR54" s="266"/>
+      <c r="A54" s="265"/>
+      <c r="B54" s="265"/>
+      <c r="C54" s="265"/>
+      <c r="D54" s="265"/>
+      <c r="E54" s="265"/>
+      <c r="F54" s="265"/>
+      <c r="G54" s="265"/>
+      <c r="H54" s="265"/>
+      <c r="I54" s="265"/>
+      <c r="J54" s="265"/>
+      <c r="K54" s="265"/>
+      <c r="L54" s="265"/>
+      <c r="M54" s="265"/>
+      <c r="N54" s="265"/>
+      <c r="O54" s="265"/>
+      <c r="P54" s="265"/>
+      <c r="Q54" s="265"/>
+      <c r="R54" s="265"/>
+      <c r="S54" s="265"/>
+      <c r="T54" s="265"/>
+      <c r="U54" s="265"/>
+      <c r="V54" s="265"/>
+      <c r="W54" s="265"/>
+      <c r="X54" s="265"/>
+      <c r="Y54" s="265"/>
+      <c r="Z54" s="265"/>
+      <c r="AA54" s="265"/>
+      <c r="AB54" s="265"/>
+      <c r="AC54" s="265"/>
+      <c r="AD54" s="265"/>
+      <c r="AE54" s="265"/>
+      <c r="AF54" s="265"/>
+      <c r="AG54" s="265"/>
+      <c r="AH54" s="265"/>
+      <c r="AI54" s="265"/>
+      <c r="AJ54" s="265"/>
+      <c r="AK54" s="265"/>
+      <c r="AL54" s="265"/>
+      <c r="AM54" s="265"/>
+      <c r="AN54" s="265"/>
+      <c r="AO54" s="265"/>
+      <c r="AP54" s="265"/>
+      <c r="AQ54" s="265"/>
+      <c r="AR54" s="265"/>
+      <c r="AS54" s="265"/>
+      <c r="AT54" s="265"/>
+      <c r="AU54" s="265"/>
+      <c r="AV54" s="265"/>
+      <c r="AW54" s="265"/>
+      <c r="AX54" s="265"/>
+      <c r="AY54" s="265"/>
+      <c r="AZ54" s="265"/>
+      <c r="BA54" s="265"/>
+      <c r="BB54" s="265"/>
+      <c r="BC54" s="265"/>
+      <c r="BD54" s="265"/>
+      <c r="BE54" s="265"/>
+      <c r="BF54" s="265"/>
+      <c r="BG54" s="265"/>
+      <c r="BH54" s="265"/>
+      <c r="BI54" s="265"/>
+      <c r="BJ54" s="265"/>
+      <c r="BK54" s="265"/>
+      <c r="BL54" s="265"/>
+      <c r="BM54" s="265"/>
+      <c r="BN54" s="265"/>
+      <c r="BO54" s="265"/>
+      <c r="BP54" s="265"/>
+      <c r="BQ54" s="265"/>
+      <c r="BR54" s="265"/>
     </row>
     <row r="55" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A55" s="266"/>
-      <c r="B55" s="266"/>
-      <c r="C55" s="266"/>
-      <c r="D55" s="266"/>
-      <c r="E55" s="266"/>
-      <c r="F55" s="266"/>
-      <c r="G55" s="266"/>
-      <c r="H55" s="266"/>
-      <c r="I55" s="266"/>
-      <c r="J55" s="266"/>
-      <c r="K55" s="266"/>
-      <c r="L55" s="266"/>
-      <c r="M55" s="266"/>
-      <c r="N55" s="266"/>
-      <c r="O55" s="266"/>
-      <c r="P55" s="266"/>
-      <c r="Q55" s="266"/>
-      <c r="R55" s="266"/>
-      <c r="S55" s="266"/>
-      <c r="T55" s="266"/>
-      <c r="U55" s="266"/>
-      <c r="V55" s="266"/>
-      <c r="W55" s="266"/>
-      <c r="X55" s="266"/>
-      <c r="Y55" s="266"/>
-      <c r="Z55" s="266"/>
-      <c r="AA55" s="266"/>
-      <c r="AB55" s="266"/>
-      <c r="AC55" s="266"/>
-      <c r="AD55" s="266"/>
-      <c r="AE55" s="266"/>
-      <c r="AF55" s="266"/>
-      <c r="AG55" s="266"/>
-      <c r="AH55" s="266"/>
-      <c r="AI55" s="266"/>
-      <c r="AJ55" s="266"/>
-      <c r="AK55" s="266"/>
-      <c r="AL55" s="266"/>
-      <c r="AM55" s="266"/>
-      <c r="AN55" s="266"/>
-      <c r="AO55" s="266"/>
-      <c r="AP55" s="266"/>
-      <c r="AQ55" s="266"/>
-      <c r="AR55" s="266"/>
-      <c r="AS55" s="266"/>
-      <c r="AT55" s="266"/>
-      <c r="AU55" s="266"/>
-      <c r="AV55" s="266"/>
-      <c r="AW55" s="266"/>
-      <c r="AX55" s="266"/>
-      <c r="AY55" s="266"/>
-      <c r="AZ55" s="266"/>
-      <c r="BA55" s="266"/>
-      <c r="BB55" s="266"/>
-      <c r="BC55" s="266"/>
-      <c r="BD55" s="266"/>
-      <c r="BE55" s="266"/>
-      <c r="BF55" s="266"/>
-      <c r="BG55" s="266"/>
-      <c r="BH55" s="266"/>
-      <c r="BI55" s="266"/>
-      <c r="BJ55" s="266"/>
-      <c r="BK55" s="266"/>
-      <c r="BL55" s="266"/>
-      <c r="BM55" s="266"/>
-      <c r="BN55" s="266"/>
-      <c r="BO55" s="266"/>
-      <c r="BP55" s="266"/>
-      <c r="BQ55" s="266"/>
-      <c r="BR55" s="266"/>
+      <c r="A55" s="265"/>
+      <c r="B55" s="265"/>
+      <c r="C55" s="265"/>
+      <c r="D55" s="265"/>
+      <c r="E55" s="265"/>
+      <c r="F55" s="265"/>
+      <c r="G55" s="265"/>
+      <c r="H55" s="265"/>
+      <c r="I55" s="265"/>
+      <c r="J55" s="265"/>
+      <c r="K55" s="265"/>
+      <c r="L55" s="265"/>
+      <c r="M55" s="265"/>
+      <c r="N55" s="265"/>
+      <c r="O55" s="265"/>
+      <c r="P55" s="265"/>
+      <c r="Q55" s="265"/>
+      <c r="R55" s="265"/>
+      <c r="S55" s="265"/>
+      <c r="T55" s="265"/>
+      <c r="U55" s="265"/>
+      <c r="V55" s="265"/>
+      <c r="W55" s="265"/>
+      <c r="X55" s="265"/>
+      <c r="Y55" s="265"/>
+      <c r="Z55" s="265"/>
+      <c r="AA55" s="265"/>
+      <c r="AB55" s="265"/>
+      <c r="AC55" s="265"/>
+      <c r="AD55" s="265"/>
+      <c r="AE55" s="265"/>
+      <c r="AF55" s="265"/>
+      <c r="AG55" s="265"/>
+      <c r="AH55" s="265"/>
+      <c r="AI55" s="265"/>
+      <c r="AJ55" s="265"/>
+      <c r="AK55" s="265"/>
+      <c r="AL55" s="265"/>
+      <c r="AM55" s="265"/>
+      <c r="AN55" s="265"/>
+      <c r="AO55" s="265"/>
+      <c r="AP55" s="265"/>
+      <c r="AQ55" s="265"/>
+      <c r="AR55" s="265"/>
+      <c r="AS55" s="265"/>
+      <c r="AT55" s="265"/>
+      <c r="AU55" s="265"/>
+      <c r="AV55" s="265"/>
+      <c r="AW55" s="265"/>
+      <c r="AX55" s="265"/>
+      <c r="AY55" s="265"/>
+      <c r="AZ55" s="265"/>
+      <c r="BA55" s="265"/>
+      <c r="BB55" s="265"/>
+      <c r="BC55" s="265"/>
+      <c r="BD55" s="265"/>
+      <c r="BE55" s="265"/>
+      <c r="BF55" s="265"/>
+      <c r="BG55" s="265"/>
+      <c r="BH55" s="265"/>
+      <c r="BI55" s="265"/>
+      <c r="BJ55" s="265"/>
+      <c r="BK55" s="265"/>
+      <c r="BL55" s="265"/>
+      <c r="BM55" s="265"/>
+      <c r="BN55" s="265"/>
+      <c r="BO55" s="265"/>
+      <c r="BP55" s="265"/>
+      <c r="BQ55" s="265"/>
+      <c r="BR55" s="265"/>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A56" s="266"/>
-      <c r="B56" s="266"/>
-      <c r="C56" s="266"/>
-      <c r="D56" s="266"/>
-      <c r="E56" s="266"/>
-      <c r="F56" s="266"/>
-      <c r="G56" s="266"/>
-      <c r="H56" s="266"/>
-      <c r="I56" s="266"/>
-      <c r="J56" s="266"/>
-      <c r="K56" s="266"/>
-      <c r="L56" s="266"/>
-      <c r="M56" s="266"/>
-      <c r="N56" s="266"/>
-      <c r="O56" s="266"/>
-      <c r="P56" s="266"/>
-      <c r="Q56" s="266"/>
-      <c r="R56" s="266"/>
-      <c r="S56" s="266"/>
-      <c r="T56" s="266"/>
-      <c r="U56" s="266"/>
-      <c r="V56" s="266"/>
-      <c r="W56" s="266"/>
-      <c r="X56" s="266"/>
-      <c r="Y56" s="266"/>
-      <c r="Z56" s="266"/>
-      <c r="AA56" s="266"/>
-      <c r="AB56" s="266"/>
-      <c r="AC56" s="266"/>
-      <c r="AD56" s="266"/>
-      <c r="AE56" s="266"/>
-      <c r="AF56" s="266"/>
-      <c r="AG56" s="266"/>
-      <c r="AH56" s="266"/>
-      <c r="AI56" s="266"/>
-      <c r="AJ56" s="266"/>
-      <c r="AK56" s="266"/>
-      <c r="AL56" s="266"/>
-      <c r="AM56" s="266"/>
-      <c r="AN56" s="266"/>
-      <c r="AO56" s="266"/>
-      <c r="AP56" s="266"/>
-      <c r="AQ56" s="266"/>
-      <c r="AR56" s="266"/>
-      <c r="AS56" s="266"/>
-      <c r="AT56" s="266"/>
-      <c r="AU56" s="266"/>
-      <c r="AV56" s="266"/>
-      <c r="AW56" s="266"/>
-      <c r="AX56" s="266"/>
-      <c r="AY56" s="266"/>
-      <c r="AZ56" s="266"/>
-      <c r="BA56" s="266"/>
-      <c r="BB56" s="266"/>
-      <c r="BC56" s="266"/>
-      <c r="BD56" s="266"/>
-      <c r="BE56" s="266"/>
-      <c r="BF56" s="266"/>
-      <c r="BG56" s="266"/>
-      <c r="BH56" s="266"/>
-      <c r="BI56" s="266"/>
-      <c r="BJ56" s="266"/>
-      <c r="BK56" s="266"/>
-      <c r="BL56" s="266"/>
-      <c r="BM56" s="266"/>
-      <c r="BN56" s="266"/>
-      <c r="BO56" s="266"/>
-      <c r="BP56" s="266"/>
-      <c r="BQ56" s="266"/>
-      <c r="BR56" s="266"/>
+      <c r="A56" s="265"/>
+      <c r="B56" s="265"/>
+      <c r="C56" s="265"/>
+      <c r="D56" s="265"/>
+      <c r="E56" s="265"/>
+      <c r="F56" s="265"/>
+      <c r="G56" s="265"/>
+      <c r="H56" s="265"/>
+      <c r="I56" s="265"/>
+      <c r="J56" s="265"/>
+      <c r="K56" s="265"/>
+      <c r="L56" s="265"/>
+      <c r="M56" s="265"/>
+      <c r="N56" s="265"/>
+      <c r="O56" s="265"/>
+      <c r="P56" s="265"/>
+      <c r="Q56" s="265"/>
+      <c r="R56" s="265"/>
+      <c r="S56" s="265"/>
+      <c r="T56" s="265"/>
+      <c r="U56" s="265"/>
+      <c r="V56" s="265"/>
+      <c r="W56" s="265"/>
+      <c r="X56" s="265"/>
+      <c r="Y56" s="265"/>
+      <c r="Z56" s="265"/>
+      <c r="AA56" s="265"/>
+      <c r="AB56" s="265"/>
+      <c r="AC56" s="265"/>
+      <c r="AD56" s="265"/>
+      <c r="AE56" s="265"/>
+      <c r="AF56" s="265"/>
+      <c r="AG56" s="265"/>
+      <c r="AH56" s="265"/>
+      <c r="AI56" s="265"/>
+      <c r="AJ56" s="265"/>
+      <c r="AK56" s="265"/>
+      <c r="AL56" s="265"/>
+      <c r="AM56" s="265"/>
+      <c r="AN56" s="265"/>
+      <c r="AO56" s="265"/>
+      <c r="AP56" s="265"/>
+      <c r="AQ56" s="265"/>
+      <c r="AR56" s="265"/>
+      <c r="AS56" s="265"/>
+      <c r="AT56" s="265"/>
+      <c r="AU56" s="265"/>
+      <c r="AV56" s="265"/>
+      <c r="AW56" s="265"/>
+      <c r="AX56" s="265"/>
+      <c r="AY56" s="265"/>
+      <c r="AZ56" s="265"/>
+      <c r="BA56" s="265"/>
+      <c r="BB56" s="265"/>
+      <c r="BC56" s="265"/>
+      <c r="BD56" s="265"/>
+      <c r="BE56" s="265"/>
+      <c r="BF56" s="265"/>
+      <c r="BG56" s="265"/>
+      <c r="BH56" s="265"/>
+      <c r="BI56" s="265"/>
+      <c r="BJ56" s="265"/>
+      <c r="BK56" s="265"/>
+      <c r="BL56" s="265"/>
+      <c r="BM56" s="265"/>
+      <c r="BN56" s="265"/>
+      <c r="BO56" s="265"/>
+      <c r="BP56" s="265"/>
+      <c r="BQ56" s="265"/>
+      <c r="BR56" s="265"/>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A57" s="266"/>
-      <c r="B57" s="266"/>
-      <c r="C57" s="266"/>
-      <c r="D57" s="266"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
-      <c r="G57" s="266"/>
-      <c r="H57" s="266"/>
-      <c r="I57" s="266"/>
-      <c r="J57" s="266"/>
-      <c r="K57" s="266"/>
-      <c r="L57" s="266"/>
-      <c r="M57" s="266"/>
-      <c r="N57" s="266"/>
-      <c r="O57" s="266"/>
-      <c r="P57" s="266"/>
-      <c r="Q57" s="266"/>
-      <c r="R57" s="266"/>
-      <c r="S57" s="266"/>
-      <c r="T57" s="266"/>
-      <c r="U57" s="266"/>
-      <c r="V57" s="266"/>
-      <c r="W57" s="266"/>
-      <c r="X57" s="266"/>
-      <c r="Y57" s="266"/>
-      <c r="Z57" s="266"/>
-      <c r="AA57" s="266"/>
-      <c r="AB57" s="266"/>
-      <c r="AC57" s="266"/>
-      <c r="AD57" s="266"/>
-      <c r="AE57" s="266"/>
-      <c r="AF57" s="266"/>
-      <c r="AG57" s="266"/>
-      <c r="AH57" s="266"/>
-      <c r="AI57" s="266"/>
-      <c r="AJ57" s="266"/>
-      <c r="AK57" s="266"/>
-      <c r="AL57" s="266"/>
-      <c r="AM57" s="266"/>
-      <c r="AN57" s="266"/>
-      <c r="AO57" s="266"/>
-      <c r="AP57" s="266"/>
-      <c r="AQ57" s="266"/>
-      <c r="AR57" s="266"/>
-      <c r="AS57" s="266"/>
-      <c r="AT57" s="266"/>
-      <c r="AU57" s="266"/>
-      <c r="AV57" s="266"/>
-      <c r="AW57" s="266"/>
-      <c r="AX57" s="266"/>
-      <c r="AY57" s="266"/>
-      <c r="AZ57" s="266"/>
-      <c r="BA57" s="266"/>
-      <c r="BB57" s="266"/>
-      <c r="BC57" s="266"/>
-      <c r="BD57" s="266"/>
-      <c r="BE57" s="266"/>
-      <c r="BF57" s="266"/>
-      <c r="BG57" s="266"/>
-      <c r="BH57" s="266"/>
-      <c r="BI57" s="266"/>
-      <c r="BJ57" s="266"/>
-      <c r="BK57" s="266"/>
-      <c r="BL57" s="266"/>
-      <c r="BM57" s="266"/>
-      <c r="BN57" s="266"/>
-      <c r="BO57" s="266"/>
-      <c r="BP57" s="266"/>
-      <c r="BQ57" s="266"/>
-      <c r="BR57" s="266"/>
+      <c r="A57" s="265"/>
+      <c r="B57" s="265"/>
+      <c r="C57" s="265"/>
+      <c r="D57" s="265"/>
+      <c r="E57" s="265"/>
+      <c r="F57" s="265"/>
+      <c r="G57" s="265"/>
+      <c r="H57" s="265"/>
+      <c r="I57" s="265"/>
+      <c r="J57" s="265"/>
+      <c r="K57" s="265"/>
+      <c r="L57" s="265"/>
+      <c r="M57" s="265"/>
+      <c r="N57" s="265"/>
+      <c r="O57" s="265"/>
+      <c r="P57" s="265"/>
+      <c r="Q57" s="265"/>
+      <c r="R57" s="265"/>
+      <c r="S57" s="265"/>
+      <c r="T57" s="265"/>
+      <c r="U57" s="265"/>
+      <c r="V57" s="265"/>
+      <c r="W57" s="265"/>
+      <c r="X57" s="265"/>
+      <c r="Y57" s="265"/>
+      <c r="Z57" s="265"/>
+      <c r="AA57" s="265"/>
+      <c r="AB57" s="265"/>
+      <c r="AC57" s="265"/>
+      <c r="AD57" s="265"/>
+      <c r="AE57" s="265"/>
+      <c r="AF57" s="265"/>
+      <c r="AG57" s="265"/>
+      <c r="AH57" s="265"/>
+      <c r="AI57" s="265"/>
+      <c r="AJ57" s="265"/>
+      <c r="AK57" s="265"/>
+      <c r="AL57" s="265"/>
+      <c r="AM57" s="265"/>
+      <c r="AN57" s="265"/>
+      <c r="AO57" s="265"/>
+      <c r="AP57" s="265"/>
+      <c r="AQ57" s="265"/>
+      <c r="AR57" s="265"/>
+      <c r="AS57" s="265"/>
+      <c r="AT57" s="265"/>
+      <c r="AU57" s="265"/>
+      <c r="AV57" s="265"/>
+      <c r="AW57" s="265"/>
+      <c r="AX57" s="265"/>
+      <c r="AY57" s="265"/>
+      <c r="AZ57" s="265"/>
+      <c r="BA57" s="265"/>
+      <c r="BB57" s="265"/>
+      <c r="BC57" s="265"/>
+      <c r="BD57" s="265"/>
+      <c r="BE57" s="265"/>
+      <c r="BF57" s="265"/>
+      <c r="BG57" s="265"/>
+      <c r="BH57" s="265"/>
+      <c r="BI57" s="265"/>
+      <c r="BJ57" s="265"/>
+      <c r="BK57" s="265"/>
+      <c r="BL57" s="265"/>
+      <c r="BM57" s="265"/>
+      <c r="BN57" s="265"/>
+      <c r="BO57" s="265"/>
+      <c r="BP57" s="265"/>
+      <c r="BQ57" s="265"/>
+      <c r="BR57" s="265"/>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A58" s="266"/>
-      <c r="B58" s="266"/>
-      <c r="C58" s="266"/>
-      <c r="D58" s="266"/>
-      <c r="E58" s="266"/>
-      <c r="F58" s="266"/>
-      <c r="G58" s="266"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="266"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="266"/>
-      <c r="L58" s="266"/>
-      <c r="M58" s="266"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="266"/>
-      <c r="P58" s="266"/>
-      <c r="Q58" s="266"/>
-      <c r="R58" s="266"/>
-      <c r="S58" s="266"/>
-      <c r="T58" s="266"/>
-      <c r="U58" s="266"/>
-      <c r="V58" s="266"/>
-      <c r="W58" s="266"/>
-      <c r="X58" s="266"/>
-      <c r="Y58" s="266"/>
-      <c r="Z58" s="266"/>
-      <c r="AA58" s="266"/>
-      <c r="AB58" s="266"/>
-      <c r="AC58" s="266"/>
-      <c r="AD58" s="266"/>
-      <c r="AE58" s="266"/>
-      <c r="AF58" s="266"/>
-      <c r="AG58" s="266"/>
-      <c r="AH58" s="266"/>
-      <c r="AI58" s="266"/>
-      <c r="AJ58" s="266"/>
-      <c r="AK58" s="266"/>
-      <c r="AL58" s="266"/>
-      <c r="AM58" s="266"/>
-      <c r="AN58" s="266"/>
-      <c r="AO58" s="266"/>
-      <c r="AP58" s="266"/>
-      <c r="AQ58" s="266"/>
-      <c r="AR58" s="266"/>
-      <c r="AS58" s="266"/>
-      <c r="AT58" s="266"/>
-      <c r="AU58" s="266"/>
-      <c r="AV58" s="266"/>
-      <c r="AW58" s="266"/>
-      <c r="AX58" s="266"/>
-      <c r="AY58" s="266"/>
-      <c r="AZ58" s="266"/>
-      <c r="BA58" s="266"/>
-      <c r="BB58" s="266"/>
-      <c r="BC58" s="266"/>
-      <c r="BD58" s="266"/>
-      <c r="BE58" s="266"/>
-      <c r="BF58" s="266"/>
-      <c r="BG58" s="266"/>
-      <c r="BH58" s="266"/>
-      <c r="BI58" s="266"/>
-      <c r="BJ58" s="266"/>
-      <c r="BK58" s="266"/>
-      <c r="BL58" s="266"/>
-      <c r="BM58" s="266"/>
-      <c r="BN58" s="266"/>
-      <c r="BO58" s="266"/>
-      <c r="BP58" s="266"/>
-      <c r="BQ58" s="266"/>
-      <c r="BR58" s="266"/>
+      <c r="A58" s="265"/>
+      <c r="B58" s="265"/>
+      <c r="C58" s="265"/>
+      <c r="D58" s="265"/>
+      <c r="E58" s="265"/>
+      <c r="F58" s="265"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="265"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="265"/>
+      <c r="K58" s="265"/>
+      <c r="L58" s="265"/>
+      <c r="M58" s="265"/>
+      <c r="N58" s="265"/>
+      <c r="O58" s="265"/>
+      <c r="P58" s="265"/>
+      <c r="Q58" s="265"/>
+      <c r="R58" s="265"/>
+      <c r="S58" s="265"/>
+      <c r="T58" s="265"/>
+      <c r="U58" s="265"/>
+      <c r="V58" s="265"/>
+      <c r="W58" s="265"/>
+      <c r="X58" s="265"/>
+      <c r="Y58" s="265"/>
+      <c r="Z58" s="265"/>
+      <c r="AA58" s="265"/>
+      <c r="AB58" s="265"/>
+      <c r="AC58" s="265"/>
+      <c r="AD58" s="265"/>
+      <c r="AE58" s="265"/>
+      <c r="AF58" s="265"/>
+      <c r="AG58" s="265"/>
+      <c r="AH58" s="265"/>
+      <c r="AI58" s="265"/>
+      <c r="AJ58" s="265"/>
+      <c r="AK58" s="265"/>
+      <c r="AL58" s="265"/>
+      <c r="AM58" s="265"/>
+      <c r="AN58" s="265"/>
+      <c r="AO58" s="265"/>
+      <c r="AP58" s="265"/>
+      <c r="AQ58" s="265"/>
+      <c r="AR58" s="265"/>
+      <c r="AS58" s="265"/>
+      <c r="AT58" s="265"/>
+      <c r="AU58" s="265"/>
+      <c r="AV58" s="265"/>
+      <c r="AW58" s="265"/>
+      <c r="AX58" s="265"/>
+      <c r="AY58" s="265"/>
+      <c r="AZ58" s="265"/>
+      <c r="BA58" s="265"/>
+      <c r="BB58" s="265"/>
+      <c r="BC58" s="265"/>
+      <c r="BD58" s="265"/>
+      <c r="BE58" s="265"/>
+      <c r="BF58" s="265"/>
+      <c r="BG58" s="265"/>
+      <c r="BH58" s="265"/>
+      <c r="BI58" s="265"/>
+      <c r="BJ58" s="265"/>
+      <c r="BK58" s="265"/>
+      <c r="BL58" s="265"/>
+      <c r="BM58" s="265"/>
+      <c r="BN58" s="265"/>
+      <c r="BO58" s="265"/>
+      <c r="BP58" s="265"/>
+      <c r="BQ58" s="265"/>
+      <c r="BR58" s="265"/>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A59" s="266"/>
-      <c r="B59" s="266"/>
-      <c r="C59" s="266"/>
-      <c r="D59" s="266"/>
-      <c r="E59" s="266"/>
-      <c r="F59" s="266"/>
-      <c r="G59" s="266"/>
-      <c r="H59" s="266"/>
-      <c r="I59" s="266"/>
-      <c r="J59" s="266"/>
-      <c r="K59" s="266"/>
-      <c r="L59" s="266"/>
-      <c r="M59" s="266"/>
-      <c r="N59" s="266"/>
-      <c r="O59" s="266"/>
-      <c r="P59" s="266"/>
-      <c r="Q59" s="266"/>
-      <c r="R59" s="266"/>
-      <c r="S59" s="266"/>
-      <c r="T59" s="266"/>
-      <c r="U59" s="266"/>
-      <c r="V59" s="266"/>
-      <c r="W59" s="266"/>
-      <c r="X59" s="266"/>
-      <c r="Y59" s="266"/>
-      <c r="Z59" s="266"/>
-      <c r="AA59" s="266"/>
-      <c r="AB59" s="266"/>
-      <c r="AC59" s="266"/>
-      <c r="AD59" s="266"/>
-      <c r="AE59" s="266"/>
-      <c r="AF59" s="266"/>
-      <c r="AG59" s="266"/>
-      <c r="AH59" s="266"/>
-      <c r="AI59" s="266"/>
-      <c r="AJ59" s="266"/>
-      <c r="AK59" s="266"/>
-      <c r="AL59" s="266"/>
-      <c r="AM59" s="266"/>
-      <c r="AN59" s="266"/>
-      <c r="AO59" s="266"/>
-      <c r="AP59" s="266"/>
-      <c r="AQ59" s="266"/>
-      <c r="AR59" s="266"/>
-      <c r="AS59" s="266"/>
-      <c r="AT59" s="266"/>
-      <c r="AU59" s="266"/>
-      <c r="AV59" s="266"/>
-      <c r="AW59" s="266"/>
-      <c r="AX59" s="266"/>
-      <c r="AY59" s="266"/>
-      <c r="AZ59" s="266"/>
-      <c r="BA59" s="266"/>
-      <c r="BB59" s="266"/>
-      <c r="BC59" s="266"/>
-      <c r="BD59" s="266"/>
-      <c r="BE59" s="266"/>
-      <c r="BF59" s="266"/>
-      <c r="BG59" s="266"/>
-      <c r="BH59" s="266"/>
-      <c r="BI59" s="266"/>
-      <c r="BJ59" s="266"/>
-      <c r="BK59" s="266"/>
-      <c r="BL59" s="266"/>
-      <c r="BM59" s="266"/>
-      <c r="BN59" s="266"/>
-      <c r="BO59" s="266"/>
-      <c r="BP59" s="266"/>
-      <c r="BQ59" s="266"/>
-      <c r="BR59" s="266"/>
+      <c r="A59" s="265"/>
+      <c r="B59" s="265"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="265"/>
+      <c r="E59" s="265"/>
+      <c r="F59" s="265"/>
+      <c r="G59" s="265"/>
+      <c r="H59" s="265"/>
+      <c r="I59" s="265"/>
+      <c r="J59" s="265"/>
+      <c r="K59" s="265"/>
+      <c r="L59" s="265"/>
+      <c r="M59" s="265"/>
+      <c r="N59" s="265"/>
+      <c r="O59" s="265"/>
+      <c r="P59" s="265"/>
+      <c r="Q59" s="265"/>
+      <c r="R59" s="265"/>
+      <c r="S59" s="265"/>
+      <c r="T59" s="265"/>
+      <c r="U59" s="265"/>
+      <c r="V59" s="265"/>
+      <c r="W59" s="265"/>
+      <c r="X59" s="265"/>
+      <c r="Y59" s="265"/>
+      <c r="Z59" s="265"/>
+      <c r="AA59" s="265"/>
+      <c r="AB59" s="265"/>
+      <c r="AC59" s="265"/>
+      <c r="AD59" s="265"/>
+      <c r="AE59" s="265"/>
+      <c r="AF59" s="265"/>
+      <c r="AG59" s="265"/>
+      <c r="AH59" s="265"/>
+      <c r="AI59" s="265"/>
+      <c r="AJ59" s="265"/>
+      <c r="AK59" s="265"/>
+      <c r="AL59" s="265"/>
+      <c r="AM59" s="265"/>
+      <c r="AN59" s="265"/>
+      <c r="AO59" s="265"/>
+      <c r="AP59" s="265"/>
+      <c r="AQ59" s="265"/>
+      <c r="AR59" s="265"/>
+      <c r="AS59" s="265"/>
+      <c r="AT59" s="265"/>
+      <c r="AU59" s="265"/>
+      <c r="AV59" s="265"/>
+      <c r="AW59" s="265"/>
+      <c r="AX59" s="265"/>
+      <c r="AY59" s="265"/>
+      <c r="AZ59" s="265"/>
+      <c r="BA59" s="265"/>
+      <c r="BB59" s="265"/>
+      <c r="BC59" s="265"/>
+      <c r="BD59" s="265"/>
+      <c r="BE59" s="265"/>
+      <c r="BF59" s="265"/>
+      <c r="BG59" s="265"/>
+      <c r="BH59" s="265"/>
+      <c r="BI59" s="265"/>
+      <c r="BJ59" s="265"/>
+      <c r="BK59" s="265"/>
+      <c r="BL59" s="265"/>
+      <c r="BM59" s="265"/>
+      <c r="BN59" s="265"/>
+      <c r="BO59" s="265"/>
+      <c r="BP59" s="265"/>
+      <c r="BQ59" s="265"/>
+      <c r="BR59" s="265"/>
     </row>
     <row r="60" ht="12.75" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A60" s="266"/>
-      <c r="B60" s="266"/>
-      <c r="C60" s="266"/>
-      <c r="D60" s="266"/>
-      <c r="E60" s="266"/>
-      <c r="F60" s="266"/>
-      <c r="G60" s="266"/>
-      <c r="H60" s="266"/>
-      <c r="I60" s="266"/>
-      <c r="J60" s="266"/>
-      <c r="K60" s="266"/>
-      <c r="L60" s="266"/>
-      <c r="M60" s="266"/>
-      <c r="N60" s="266"/>
-      <c r="O60" s="266"/>
-      <c r="P60" s="266"/>
-      <c r="Q60" s="266"/>
-      <c r="R60" s="266"/>
-      <c r="S60" s="266"/>
-      <c r="T60" s="266"/>
-      <c r="U60" s="266"/>
-      <c r="V60" s="266"/>
-      <c r="W60" s="266"/>
-      <c r="X60" s="266"/>
-      <c r="Y60" s="266"/>
-      <c r="Z60" s="266"/>
-      <c r="AA60" s="266"/>
-      <c r="AB60" s="266"/>
-      <c r="AC60" s="266"/>
-      <c r="AD60" s="266"/>
-      <c r="AE60" s="266"/>
-      <c r="AF60" s="266"/>
-      <c r="AG60" s="266"/>
-      <c r="AH60" s="266"/>
-      <c r="AI60" s="266"/>
-      <c r="AJ60" s="266"/>
-      <c r="AK60" s="266"/>
-      <c r="AL60" s="266"/>
-      <c r="AM60" s="266"/>
-      <c r="AN60" s="266"/>
-      <c r="AO60" s="266"/>
-      <c r="AP60" s="266"/>
-      <c r="AQ60" s="266"/>
-      <c r="AR60" s="266"/>
-      <c r="AS60" s="266"/>
-      <c r="AT60" s="266"/>
-      <c r="AU60" s="266"/>
-      <c r="AV60" s="266"/>
-      <c r="AW60" s="266"/>
-      <c r="AX60" s="266"/>
-      <c r="AY60" s="266"/>
-      <c r="AZ60" s="266"/>
-      <c r="BA60" s="266"/>
-      <c r="BB60" s="266"/>
-      <c r="BC60" s="266"/>
-      <c r="BD60" s="266"/>
-      <c r="BE60" s="266"/>
-      <c r="BF60" s="266"/>
-      <c r="BG60" s="266"/>
-      <c r="BH60" s="266"/>
-      <c r="BI60" s="266"/>
-      <c r="BJ60" s="266"/>
-      <c r="BK60" s="266"/>
-      <c r="BL60" s="266"/>
-      <c r="BM60" s="266"/>
-      <c r="BN60" s="266"/>
-      <c r="BO60" s="266"/>
-      <c r="BP60" s="266"/>
-      <c r="BQ60" s="266"/>
-      <c r="BR60" s="266"/>
+      <c r="A60" s="265"/>
+      <c r="B60" s="265"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="265"/>
+      <c r="E60" s="265"/>
+      <c r="F60" s="265"/>
+      <c r="G60" s="265"/>
+      <c r="H60" s="265"/>
+      <c r="I60" s="265"/>
+      <c r="J60" s="265"/>
+      <c r="K60" s="265"/>
+      <c r="L60" s="265"/>
+      <c r="M60" s="265"/>
+      <c r="N60" s="265"/>
+      <c r="O60" s="265"/>
+      <c r="P60" s="265"/>
+      <c r="Q60" s="265"/>
+      <c r="R60" s="265"/>
+      <c r="S60" s="265"/>
+      <c r="T60" s="265"/>
+      <c r="U60" s="265"/>
+      <c r="V60" s="265"/>
+      <c r="W60" s="265"/>
+      <c r="X60" s="265"/>
+      <c r="Y60" s="265"/>
+      <c r="Z60" s="265"/>
+      <c r="AA60" s="265"/>
+      <c r="AB60" s="265"/>
+      <c r="AC60" s="265"/>
+      <c r="AD60" s="265"/>
+      <c r="AE60" s="265"/>
+      <c r="AF60" s="265"/>
+      <c r="AG60" s="265"/>
+      <c r="AH60" s="265"/>
+      <c r="AI60" s="265"/>
+      <c r="AJ60" s="265"/>
+      <c r="AK60" s="265"/>
+      <c r="AL60" s="265"/>
+      <c r="AM60" s="265"/>
+      <c r="AN60" s="265"/>
+      <c r="AO60" s="265"/>
+      <c r="AP60" s="265"/>
+      <c r="AQ60" s="265"/>
+      <c r="AR60" s="265"/>
+      <c r="AS60" s="265"/>
+      <c r="AT60" s="265"/>
+      <c r="AU60" s="265"/>
+      <c r="AV60" s="265"/>
+      <c r="AW60" s="265"/>
+      <c r="AX60" s="265"/>
+      <c r="AY60" s="265"/>
+      <c r="AZ60" s="265"/>
+      <c r="BA60" s="265"/>
+      <c r="BB60" s="265"/>
+      <c r="BC60" s="265"/>
+      <c r="BD60" s="265"/>
+      <c r="BE60" s="265"/>
+      <c r="BF60" s="265"/>
+      <c r="BG60" s="265"/>
+      <c r="BH60" s="265"/>
+      <c r="BI60" s="265"/>
+      <c r="BJ60" s="265"/>
+      <c r="BK60" s="265"/>
+      <c r="BL60" s="265"/>
+      <c r="BM60" s="265"/>
+      <c r="BN60" s="265"/>
+      <c r="BO60" s="265"/>
+      <c r="BP60" s="265"/>
+      <c r="BQ60" s="265"/>
+      <c r="BR60" s="265"/>
     </row>
     <row r="61" ht="12.75" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A61" s="266"/>
-      <c r="B61" s="266"/>
-      <c r="C61" s="266"/>
-      <c r="D61" s="266"/>
-      <c r="E61" s="266"/>
-      <c r="F61" s="266"/>
-      <c r="G61" s="266"/>
-      <c r="H61" s="266"/>
-      <c r="I61" s="266"/>
-      <c r="J61" s="266"/>
-      <c r="K61" s="266"/>
-      <c r="L61" s="266"/>
-      <c r="M61" s="266"/>
-      <c r="N61" s="266"/>
-      <c r="O61" s="266"/>
-      <c r="P61" s="266"/>
-      <c r="Q61" s="266"/>
-      <c r="R61" s="266"/>
-      <c r="S61" s="266"/>
-      <c r="T61" s="266"/>
-      <c r="U61" s="266"/>
-      <c r="V61" s="266"/>
-      <c r="W61" s="266"/>
-      <c r="X61" s="266"/>
-      <c r="Y61" s="266"/>
-      <c r="Z61" s="266"/>
-      <c r="AA61" s="266"/>
-      <c r="AB61" s="266"/>
-      <c r="AC61" s="266"/>
-      <c r="AD61" s="266"/>
-      <c r="AE61" s="266"/>
-      <c r="AF61" s="266"/>
-      <c r="AG61" s="266"/>
-      <c r="AH61" s="266"/>
-      <c r="AI61" s="266"/>
-      <c r="AJ61" s="266"/>
-      <c r="AK61" s="266"/>
-      <c r="AL61" s="266"/>
-      <c r="AM61" s="266"/>
-      <c r="AN61" s="266"/>
-      <c r="AO61" s="266"/>
-      <c r="AP61" s="266"/>
-      <c r="AQ61" s="266"/>
-      <c r="AR61" s="266"/>
-      <c r="AS61" s="266"/>
-      <c r="AT61" s="266"/>
-      <c r="AU61" s="266"/>
-      <c r="AV61" s="266"/>
-      <c r="AW61" s="266"/>
-      <c r="AX61" s="266"/>
-      <c r="AY61" s="266"/>
-      <c r="AZ61" s="266"/>
-      <c r="BA61" s="266"/>
-      <c r="BB61" s="266"/>
-      <c r="BC61" s="266"/>
-      <c r="BD61" s="266"/>
-      <c r="BE61" s="266"/>
-      <c r="BF61" s="266"/>
-      <c r="BG61" s="266"/>
-      <c r="BH61" s="266"/>
-      <c r="BI61" s="266"/>
-      <c r="BJ61" s="266"/>
-      <c r="BK61" s="266"/>
-      <c r="BL61" s="266"/>
-      <c r="BM61" s="266"/>
-      <c r="BN61" s="266"/>
-      <c r="BO61" s="266"/>
-      <c r="BP61" s="266"/>
-      <c r="BQ61" s="266"/>
-      <c r="BR61" s="266"/>
+      <c r="A61" s="265"/>
+      <c r="B61" s="265"/>
+      <c r="C61" s="265"/>
+      <c r="D61" s="265"/>
+      <c r="E61" s="265"/>
+      <c r="F61" s="265"/>
+      <c r="G61" s="265"/>
+      <c r="H61" s="265"/>
+      <c r="I61" s="265"/>
+      <c r="J61" s="265"/>
+      <c r="K61" s="265"/>
+      <c r="L61" s="265"/>
+      <c r="M61" s="265"/>
+      <c r="N61" s="265"/>
+      <c r="O61" s="265"/>
+      <c r="P61" s="265"/>
+      <c r="Q61" s="265"/>
+      <c r="R61" s="265"/>
+      <c r="S61" s="265"/>
+      <c r="T61" s="265"/>
+      <c r="U61" s="265"/>
+      <c r="V61" s="265"/>
+      <c r="W61" s="265"/>
+      <c r="X61" s="265"/>
+      <c r="Y61" s="265"/>
+      <c r="Z61" s="265"/>
+      <c r="AA61" s="265"/>
+      <c r="AB61" s="265"/>
+      <c r="AC61" s="265"/>
+      <c r="AD61" s="265"/>
+      <c r="AE61" s="265"/>
+      <c r="AF61" s="265"/>
+      <c r="AG61" s="265"/>
+      <c r="AH61" s="265"/>
+      <c r="AI61" s="265"/>
+      <c r="AJ61" s="265"/>
+      <c r="AK61" s="265"/>
+      <c r="AL61" s="265"/>
+      <c r="AM61" s="265"/>
+      <c r="AN61" s="265"/>
+      <c r="AO61" s="265"/>
+      <c r="AP61" s="265"/>
+      <c r="AQ61" s="265"/>
+      <c r="AR61" s="265"/>
+      <c r="AS61" s="265"/>
+      <c r="AT61" s="265"/>
+      <c r="AU61" s="265"/>
+      <c r="AV61" s="265"/>
+      <c r="AW61" s="265"/>
+      <c r="AX61" s="265"/>
+      <c r="AY61" s="265"/>
+      <c r="AZ61" s="265"/>
+      <c r="BA61" s="265"/>
+      <c r="BB61" s="265"/>
+      <c r="BC61" s="265"/>
+      <c r="BD61" s="265"/>
+      <c r="BE61" s="265"/>
+      <c r="BF61" s="265"/>
+      <c r="BG61" s="265"/>
+      <c r="BH61" s="265"/>
+      <c r="BI61" s="265"/>
+      <c r="BJ61" s="265"/>
+      <c r="BK61" s="265"/>
+      <c r="BL61" s="265"/>
+      <c r="BM61" s="265"/>
+      <c r="BN61" s="265"/>
+      <c r="BO61" s="265"/>
+      <c r="BP61" s="265"/>
+      <c r="BQ61" s="265"/>
+      <c r="BR61" s="265"/>
     </row>
     <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -53035,7 +52950,7 @@
   <dimension ref="A1:AY63"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85" view="pageBreakPreview">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.109375" customHeight="1"/>
